--- a/Data/scraping/WaxClassification_6_1.xlsx
+++ b/Data/scraping/WaxClassification_6_1.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F190"/>
+  <dimension ref="A1:E143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -375,6180 +375,5352 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>n_vues</t>
+          <t>all_vue_block</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>desc</t>
+          <t>all_text_block</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/6d003a/1783515482/il_fullxfull.1783515482_jk9u.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/33QIN78/BUJZNJFA-large.jpg</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>coupon tissu  wax  poissons</t>
+          <t>Tissus Wax , PROMOTION WAX 2 YARDS (1,82 M)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2,92 €+</t>
+          <t>32,99 $
+                27,49 $</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>9 likes</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.1 yard       90 cm x 115 cm1/2 yard    45 cm 115 cm1:4 yard    45 cm x 45 cm
-            En savoir plus sur cet article</t>
+          <t>VÉRITABLE WAX HOLLANDAIS ! Garanti lavage après lavage ! 
+Dimensions 2 yards 
+2 yards ( 1,82 mètres)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/642949/1428250978/il_fullxfull.1428250978_9sgd.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/33QIN78/BD95YB5I-large.jpg</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>coupon tissu  wax  poissons</t>
+          <t>Tissus Wax , PROMOTION WAX 2 YARDS (1,82 M)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2,92 €+</t>
+          <t>32,99 $
+                27,49 $</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>9 likes</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.1 yard       90 cm x 115 cm1/2 yard    45 cm 115 cm1:4 yard    45 cm x 45 cm
-            En savoir plus sur cet article</t>
+          <t>VÉRITABLE WAX HOLLANDAIS ! Garanti lavage après lavage ! 
+Dimensions 2 yards 
+2 yards ( 1,82 mètres)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/51bead/1783402138/il_fullxfull.1783402138_hxdd.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/X8SN96A/AM5883BY-large.jpg</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>coupon tissu  wax  poissons</t>
+          <t>Kente et autres tissus tissés , Coupon pagne wax imprimé kenté  jaune vert</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2,92 €+</t>
+          <t>13,75 $</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.1 yard       90 cm x 115 cm1/2 yard    45 cm 115 cm1:4 yard    45 cm x 45 cm
-            En savoir plus sur cet article</t>
+          <t>joli tissu wax africain kenté avec de belles couleurs vives . Votre tenue , accessoire ou objet de décoration aura du peps!
+impression recto-verso
+Plusieurs coloris et motifs disponibles dans la boutique
+laize : 1,17 mètres
+composition : coton
+Entretien : Nous recommandons fortement le lavage à la main dans une eau pas trop chaude et un savon doux comme le savon de Marseille pour préserver le tissu.
+Mais si vous optez le lavage en machine , ne pas excéder les  30°
+Séchage au sèche linge à proscrire
+vendu par unités de 0,50 mètre
+pour 1 mètre, prendre la quantité 2
+pour 1,50 mètres, quantité 3
+pour 2 mètres, quantité 4... 
+(coupé en un seul morceau)
+LES TISSUS SONT VENDUS A LA COUPE, ils ne sont ni repris ni échangés, merci de votre compréhension.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/6a3849/1830868303/il_fullxfull.1830868303_ls4h.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/X8SN96A/EAHWBNMQ-large.jpg</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>coupon tissu  wax  poissons</t>
+          <t>Kente et autres tissus tissés , Coupon pagne wax imprimé kenté  jaune vert</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2,92 €+</t>
+          <t>13,75 $</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.1 yard       90 cm x 115 cm1/2 yard    45 cm 115 cm1:4 yard    45 cm x 45 cm
-            En savoir plus sur cet article</t>
+          <t>joli tissu wax africain kenté avec de belles couleurs vives . Votre tenue , accessoire ou objet de décoration aura du peps!
+impression recto-verso
+Plusieurs coloris et motifs disponibles dans la boutique
+laize : 1,17 mètres
+composition : coton
+Entretien : Nous recommandons fortement le lavage à la main dans une eau pas trop chaude et un savon doux comme le savon de Marseille pour préserver le tissu.
+Mais si vous optez le lavage en machine , ne pas excéder les  30°
+Séchage au sèche linge à proscrire
+vendu par unités de 0,50 mètre
+pour 1 mètre, prendre la quantité 2
+pour 1,50 mètres, quantité 3
+pour 2 mètres, quantité 4... 
+(coupé en un seul morceau)
+LES TISSUS SONT VENDUS A LA COUPE, ils ne sont ni repris ni échangés, merci de votre compréhension.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/2a4e12/1830868459/il_fullxfull.1830868459_feba.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/X8SN96A/IMVVLHR5-large.jpg</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>coupon tissu  wax  poissons</t>
+          <t>Kente et autres tissus tissés , Coupon pagne wax imprimé kenté  jaune vert</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2,92 €+</t>
+          <t>13,75 $</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.1 yard       90 cm x 115 cm1/2 yard    45 cm 115 cm1:4 yard    45 cm x 45 cm
-            En savoir plus sur cet article</t>
+          <t>joli tissu wax africain kenté avec de belles couleurs vives . Votre tenue , accessoire ou objet de décoration aura du peps!
+impression recto-verso
+Plusieurs coloris et motifs disponibles dans la boutique
+laize : 1,17 mètres
+composition : coton
+Entretien : Nous recommandons fortement le lavage à la main dans une eau pas trop chaude et un savon doux comme le savon de Marseille pour préserver le tissu.
+Mais si vous optez le lavage en machine , ne pas excéder les  30°
+Séchage au sèche linge à proscrire
+vendu par unités de 0,50 mètre
+pour 1 mètre, prendre la quantité 2
+pour 1,50 mètres, quantité 3
+pour 2 mètres, quantité 4... 
+(coupé en un seul morceau)
+LES TISSUS SONT VENDUS A LA COUPE, ils ne sont ni repris ni échangés, merci de votre compréhension.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/e6c47c/1830980741/il_fullxfull.1830980741_c7zy.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/X8SN96A/LEPY5NDP-large.jpg</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>coupon tissu  wax  poissons</t>
+          <t>Kente et autres tissus tissés , Coupon pagne wax imprimé kenté  jaune vert</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2,92 €+</t>
+          <t>13,75 $</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.1 yard       90 cm x 115 cm1/2 yard    45 cm 115 cm1:4 yard    45 cm x 45 cm
-            En savoir plus sur cet article</t>
+          <t>joli tissu wax africain kenté avec de belles couleurs vives . Votre tenue , accessoire ou objet de décoration aura du peps!
+impression recto-verso
+Plusieurs coloris et motifs disponibles dans la boutique
+laize : 1,17 mètres
+composition : coton
+Entretien : Nous recommandons fortement le lavage à la main dans une eau pas trop chaude et un savon doux comme le savon de Marseille pour préserver le tissu.
+Mais si vous optez le lavage en machine , ne pas excéder les  30°
+Séchage au sèche linge à proscrire
+vendu par unités de 0,50 mètre
+pour 1 mètre, prendre la quantité 2
+pour 1,50 mètres, quantité 3
+pour 2 mètres, quantité 4... 
+(coupé en un seul morceau)
+LES TISSUS SONT VENDUS A LA COUPE, ils ne sont ni repris ni échangés, merci de votre compréhension.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/9bcf3f/1783516648/il_fullxfull.1783516648_j1bs.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/X8SN96A/LYIPQHBI-large.jpg</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>coupon tissu  wax  poissons</t>
+          <t>Kente et autres tissus tissés , Coupon pagne wax imprimé kenté  jaune vert</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2,92 €+</t>
+          <t>13,75 $</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.1 yard       90 cm x 115 cm1/2 yard    45 cm 115 cm1:4 yard    45 cm x 45 cm
-            En savoir plus sur cet article</t>
+          <t>joli tissu wax africain kenté avec de belles couleurs vives . Votre tenue , accessoire ou objet de décoration aura du peps!
+impression recto-verso
+Plusieurs coloris et motifs disponibles dans la boutique
+laize : 1,17 mètres
+composition : coton
+Entretien : Nous recommandons fortement le lavage à la main dans une eau pas trop chaude et un savon doux comme le savon de Marseille pour préserver le tissu.
+Mais si vous optez le lavage en machine , ne pas excéder les  30°
+Séchage au sèche linge à proscrire
+vendu par unités de 0,50 mètre
+pour 1 mètre, prendre la quantité 2
+pour 1,50 mètres, quantité 3
+pour 2 mètres, quantité 4... 
+(coupé en un seul morceau)
+LES TISSUS SONT VENDUS A LA COUPE, ils ne sont ni repris ni échangés, merci de votre compréhension.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/e40fce/1783516870/il_fullxfull.1783516870_3gyp.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/KSQN9QK/7L35AHCV-large.jpg</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>coupon tissu  wax  poissons</t>
+          <t>Tissus Wax , Pagne wax "écailles" à la coupe min 0,5m</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2,92 €+</t>
+          <t>14,30 $</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.1 yard       90 cm x 115 cm1/2 yard    45 cm 115 cm1:4 yard    45 cm x 45 cm
-            En savoir plus sur cet article</t>
+          <t>joli tissu wax africain très coloré dans les tons marron , jaune
+impression recto-verso
+Plusieurs coloris et motifs disponibles dans la boutique
+laize : 1,17 mètres
+composition : coton
+Entretien : Nous recommandons fortement le lavage à la main dans une eau pas trop chaude et un savon doux comme le savon de Marseille pour préserver le tissu.
+Mais si vous optez le lavage en machine , ne pas excéder les  30°
+Séchage au sèche linge à proscrire
+vendu par unités de 0,50 mètre
+pour 1 mètre, prendre la quantité 2
+pour 1,50 mètres, quantité 3
+pour 2 mètres, quantité 4... 
+(coupé en un seul morceau)
+LES TISSUS SONT VENDUS A LA COUPE, ils ne sont ni repris ni échangés, merci de votre compréhension.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/74fa77/1796709971/il_fullxfull.1796709971_smmh.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/KSQN9QK/JNPXD1MJ-large.jpg</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>tissu africain wax hirondelles</t>
+          <t>Tissus Wax , Pagne wax "écailles" à la coupe min 0,5m</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>5,62 €+</t>
+          <t>14,30 $</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.Couleurs dominantes: orange jaune noir et blanc
-            En savoir plus sur cet article</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>lagracewax</t>
+          <t>joli tissu wax africain très coloré dans les tons marron , jaune
+impression recto-verso
+Plusieurs coloris et motifs disponibles dans la boutique
+laize : 1,17 mètres
+composition : coton
+Entretien : Nous recommandons fortement le lavage à la main dans une eau pas trop chaude et un savon doux comme le savon de Marseille pour préserver le tissu.
+Mais si vous optez le lavage en machine , ne pas excéder les  30°
+Séchage au sèche linge à proscrire
+vendu par unités de 0,50 mètre
+pour 1 mètre, prendre la quantité 2
+pour 1,50 mètres, quantité 3
+pour 2 mètres, quantité 4... 
+(coupé en un seul morceau)
+LES TISSUS SONT VENDUS A LA COUPE, ils ne sont ni repris ni échangés, merci de votre compréhension.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/97f91d/1796708147/il_fullxfull.1796708147_rcff.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/KSQN9QK/USRTCZXT-large.jpg</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>tissu africain wax hirondelles</t>
+          <t>Tissus Wax , Pagne wax "écailles" à la coupe min 0,5m</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>5,62 €+</t>
+          <t>14,30 $</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.Couleurs dominantes: orange jaune noir et blanc
-            En savoir plus sur cet article</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>lagracewax</t>
+          <t>joli tissu wax africain très coloré dans les tons marron , jaune
+impression recto-verso
+Plusieurs coloris et motifs disponibles dans la boutique
+laize : 1,17 mètres
+composition : coton
+Entretien : Nous recommandons fortement le lavage à la main dans une eau pas trop chaude et un savon doux comme le savon de Marseille pour préserver le tissu.
+Mais si vous optez le lavage en machine , ne pas excéder les  30°
+Séchage au sèche linge à proscrire
+vendu par unités de 0,50 mètre
+pour 1 mètre, prendre la quantité 2
+pour 1,50 mètres, quantité 3
+pour 2 mètres, quantité 4... 
+(coupé en un seul morceau)
+LES TISSUS SONT VENDUS A LA COUPE, ils ne sont ni repris ni échangés, merci de votre compréhension.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/2b73e6/1749252982/il_fullxfull.1749252982_ezja.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/KSQN9QK/MRXQZ7DF-large.jpg</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>tissu africain wax hirondelles</t>
+          <t>Tissus Wax , Pagne wax "écailles" à la coupe min 0,5m</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>5,62 €+</t>
+          <t>14,30 $</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.Couleurs dominantes: orange jaune noir et blanc
-            En savoir plus sur cet article</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>lagracewax</t>
+          <t>joli tissu wax africain très coloré dans les tons marron , jaune
+impression recto-verso
+Plusieurs coloris et motifs disponibles dans la boutique
+laize : 1,17 mètres
+composition : coton
+Entretien : Nous recommandons fortement le lavage à la main dans une eau pas trop chaude et un savon doux comme le savon de Marseille pour préserver le tissu.
+Mais si vous optez le lavage en machine , ne pas excéder les  30°
+Séchage au sèche linge à proscrire
+vendu par unités de 0,50 mètre
+pour 1 mètre, prendre la quantité 2
+pour 1,50 mètres, quantité 3
+pour 2 mètres, quantité 4... 
+(coupé en un seul morceau)
+LES TISSUS SONT VENDUS A LA COUPE, ils ne sont ni repris ni échangés, merci de votre compréhension.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/4f2f87/1796706919/il_fullxfull.1796706919_5h41.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/KSQN9QK/QVXM5Y4Q-large.jpg</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>tissu africain wax hirondelles</t>
+          <t>Tissus Wax , Pagne wax "écailles" à la coupe min 0,5m</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>5,62 €+</t>
+          <t>14,30 $</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.Couleurs dominantes: orange jaune noir et blanc
-            En savoir plus sur cet article</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>lagracewax</t>
+          <t>joli tissu wax africain très coloré dans les tons marron , jaune
+impression recto-verso
+Plusieurs coloris et motifs disponibles dans la boutique
+laize : 1,17 mètres
+composition : coton
+Entretien : Nous recommandons fortement le lavage à la main dans une eau pas trop chaude et un savon doux comme le savon de Marseille pour préserver le tissu.
+Mais si vous optez le lavage en machine , ne pas excéder les  30°
+Séchage au sèche linge à proscrire
+vendu par unités de 0,50 mètre
+pour 1 mètre, prendre la quantité 2
+pour 1,50 mètres, quantité 3
+pour 2 mètres, quantité 4... 
+(coupé en un seul morceau)
+LES TISSUS SONT VENDUS A LA COUPE, ils ne sont ni repris ni échangés, merci de votre compréhension.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/94e13d/1796709109/il_fullxfull.1796709109_ret2.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/2BQIQKW/EA33K63J-large.jpg</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>tissu africain wax hirondelles</t>
+          <t>Tissu Soie imprimée , Soie imprimée rose</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>5,62 €+</t>
+          <t>20,89 $</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.Couleurs dominantes: orange jaune noir et blanc
-            En savoir plus sur cet article</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>lagracewax</t>
+          <t>Une version soie de vos motifs wax préférés pour la réalisation de tenues ou d' accessoires sophistiqués . 
+satin imprimé.Aspect soyeux et léger
+Existe en version mousseline
+Coloris: rose orange et blanc
+Laize : 120 cm
+Vendu par unité de 90 cm
+Pour 1,80 m prendre la quantité 2 (coupé en un seul morceau)
+La longueur maxi en un seul tenant du Satin est de 4 yards si vous commandez plus que 4 yards le coupon ne sera pas d'un seul tenant. Vous aurez forcément au moins 2 coupons</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/9d6bee/1237731212/il_fullxfull.1237731212_bmxo.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/2BQIQKW/JC2VJ23Z-large.jpg</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Véritable coupon tissu,  wax(pagne africain) 90 cm x 115 cm</t>
+          <t>Tissu Soie imprimée , Soie imprimée rose</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>10,80 €</t>
+          <t>20,89 $</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons. Coloris: rouge,jaune,noir
-            En savoir plus sur cet article</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>lagracewax</t>
+          <t>Une version soie de vos motifs wax préférés pour la réalisation de tenues ou d' accessoires sophistiqués . 
+satin imprimé.Aspect soyeux et léger
+Existe en version mousseline
+Coloris: rose orange et blanc
+Laize : 120 cm
+Vendu par unité de 90 cm
+Pour 1,80 m prendre la quantité 2 (coupé en un seul morceau)
+La longueur maxi en un seul tenant du Satin est de 4 yards si vous commandez plus que 4 yards le coupon ne sera pas d'un seul tenant. Vous aurez forcément au moins 2 coupons</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/4ccd71/1284964331/il_fullxfull.1284964331_576w.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/2BQIQKW/YVZ42UBE-large.jpg</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Véritable coupon tissu,  wax(pagne africain) 90 cm x 115 cm</t>
+          <t>Tissu Soie imprimée , Soie imprimée rose</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>10,80 €</t>
+          <t>20,89 $</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons. Coloris: rouge,jaune,noir
-            En savoir plus sur cet article</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>lagracewax</t>
+          <t>Une version soie de vos motifs wax préférés pour la réalisation de tenues ou d' accessoires sophistiqués . 
+satin imprimé.Aspect soyeux et léger
+Existe en version mousseline
+Coloris: rose orange et blanc
+Laize : 120 cm
+Vendu par unité de 90 cm
+Pour 1,80 m prendre la quantité 2 (coupé en un seul morceau)
+La longueur maxi en un seul tenant du Satin est de 4 yards si vous commandez plus que 4 yards le coupon ne sera pas d'un seul tenant. Vous aurez forcément au moins 2 coupons</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/499361/1237731108/il_fullxfull.1237731108_e233.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/2BQIQKW/C98R32VB-large.jpg</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Véritable coupon tissu,  wax(pagne africain) 90 cm x 115 cm</t>
+          <t>Tissu Soie imprimée , Soie imprimée rose</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>10,80 €</t>
+          <t>20,89 $</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons. Coloris: rouge,jaune,noir
-            En savoir plus sur cet article</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>lagracewax</t>
+          <t>Une version soie de vos motifs wax préférés pour la réalisation de tenues ou d' accessoires sophistiqués . 
+satin imprimé.Aspect soyeux et léger
+Existe en version mousseline
+Coloris: rose orange et blanc
+Laize : 120 cm
+Vendu par unité de 90 cm
+Pour 1,80 m prendre la quantité 2 (coupé en un seul morceau)
+La longueur maxi en un seul tenant du Satin est de 4 yards si vous commandez plus que 4 yards le coupon ne sera pas d'un seul tenant. Vous aurez forcément au moins 2 coupons</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/2d41e9/1237744682/il_fullxfull.1237744682_qz8v.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/NHBIEBJ/C81LRT98-large.jpg</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>wax</t>
+          <t>Tissus Wax , Pagne wax fleurs de mariage  à la coupe</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>5,62 €+</t>
+          <t>13,75 $
+                12,76 $</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons. Coloris: rouge,jaune et noir
-            En savoir plus sur cet article</t>
+          <t>Joli pagne wax africain fleur de mariage
+impression recto-verso
+vendu par unités de 0.5 mètre
+pour 1 mètre, prendre la quantité 2
+pour 1,50 mètres, quantité 3
+pour 2 mètres, quantité 4...
+(coupé en un seul morceau)
+Info livraison : Remise en mains propres possible sur Paris
+Plusieurs coloris et motifs disponibles dans la boutique 
+laize : 1,17 mètres
+composition : coton
+Entretien : Nous recommandons fortement le lavage à la main dans une eau pas trop chaude et un savon doux comme le savon de Marseille pour préserver le tissu.
+Mais si vous optez le lavage en machine , ne pas excéder les  30°
+Séchage au sèche linge à proscrire
+LES TISSUS SONT VENDUS A LA COUPE, ils ne sont ni repris ni échangés, merci de votre compréhension.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/c3c518/1237744628/il_fullxfull.1237744628_2wpr.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/NHBIEBJ/WCY16RNH-large.jpg</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>wax</t>
+          <t>Tissus Wax , Pagne wax fleurs de mariage  à la coupe</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>5,62 €+</t>
+          <t>13,75 $
+                12,76 $</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons. Coloris: rouge,jaune et noir
-            En savoir plus sur cet article</t>
+          <t>Joli pagne wax africain fleur de mariage
+impression recto-verso
+vendu par unités de 0.5 mètre
+pour 1 mètre, prendre la quantité 2
+pour 1,50 mètres, quantité 3
+pour 2 mètres, quantité 4...
+(coupé en un seul morceau)
+Info livraison : Remise en mains propres possible sur Paris
+Plusieurs coloris et motifs disponibles dans la boutique 
+laize : 1,17 mètres
+composition : coton
+Entretien : Nous recommandons fortement le lavage à la main dans une eau pas trop chaude et un savon doux comme le savon de Marseille pour préserver le tissu.
+Mais si vous optez le lavage en machine , ne pas excéder les  30°
+Séchage au sèche linge à proscrire
+LES TISSUS SONT VENDUS A LA COUPE, ils ne sont ni repris ni échangés, merci de votre compréhension.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/953ee2/2137412755/il_fullxfull.2137412755_1aos.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/NHBIEBJ/YK98J17Q-large.jpg</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>tissu africain coupon wax   45 cm x 116 cm</t>
+          <t>Tissus Wax , Pagne wax fleurs de mariage  à la coupe</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>5,80 €</t>
+          <t>13,75 $
+                12,76 $</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Longueur: 45 Centimètres; Largeur: 116 Centimètres</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons
-            En savoir plus sur cet article</t>
+          <t>Joli pagne wax africain fleur de mariage
+impression recto-verso
+vendu par unités de 0.5 mètre
+pour 1 mètre, prendre la quantité 2
+pour 1,50 mètres, quantité 3
+pour 2 mètres, quantité 4...
+(coupé en un seul morceau)
+Info livraison : Remise en mains propres possible sur Paris
+Plusieurs coloris et motifs disponibles dans la boutique 
+laize : 1,17 mètres
+composition : coton
+Entretien : Nous recommandons fortement le lavage à la main dans une eau pas trop chaude et un savon doux comme le savon de Marseille pour préserver le tissu.
+Mais si vous optez le lavage en machine , ne pas excéder les  30°
+Séchage au sèche linge à proscrire
+LES TISSUS SONT VENDUS A LA COUPE, ils ne sont ni repris ni échangés, merci de votre compréhension.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/663559/2137411805/il_fullxfull.2137411805_r3dp.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/NHBIEBJ/4YJUKLA6-large.jpg</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>tissu africain coupon wax   45 cm x 116 cm</t>
+          <t>Tissus Wax , Pagne wax fleurs de mariage  à la coupe</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>5,80 €</t>
+          <t>13,75 $
+                12,76 $</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Longueur: 45 Centimètres; Largeur: 116 Centimètres</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons
-            En savoir plus sur cet article</t>
+          <t>Joli pagne wax africain fleur de mariage
+impression recto-verso
+vendu par unités de 0.5 mètre
+pour 1 mètre, prendre la quantité 2
+pour 1,50 mètres, quantité 3
+pour 2 mètres, quantité 4...
+(coupé en un seul morceau)
+Info livraison : Remise en mains propres possible sur Paris
+Plusieurs coloris et motifs disponibles dans la boutique 
+laize : 1,17 mètres
+composition : coton
+Entretien : Nous recommandons fortement le lavage à la main dans une eau pas trop chaude et un savon doux comme le savon de Marseille pour préserver le tissu.
+Mais si vous optez le lavage en machine , ne pas excéder les  30°
+Séchage au sèche linge à proscrire
+LES TISSUS SONT VENDUS A LA COUPE, ils ne sont ni repris ni échangés, merci de votre compréhension.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/c7b571/2137412631/il_fullxfull.2137412631_h9qq.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/JZJIYLR/YR66NPUB-large.jpg</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>tissu africain coupon wax   45 cm x 116 cm</t>
+          <t>Tissus Wax , COUPON TISSU WAX AFRICAIN MOTIF: DISQUE</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>5,80 €</t>
+          <t>7,69 $</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>55 likes</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Longueur: 45 Centimètres; Largeur: 116 Centimètres</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons
-            En savoir plus sur cet article</t>
+          <t>Tissu wax 100% coton. Avec une impression de très belle qualités et des couleurs vives, un deseign unique et dynamique.
+Ce tissu est parfait pour la confection de vos robes, costumes,tops, de vos loisirs créatifs et la décoration
+Sortez des sentiers battus et réalisez des vetements et accesoires pour toute la famille avec ce TISSU WAX MOTIF: DISQUE
+Le tissu wax vous offre 1001 possibilités
+Vendu par unités de 45 cm
+1 unite = 45 cm = 1 /2 yard
+2 unite = 90 cm = 1 yard
+3 unite = 135 cm = 1,5 yard
+4 unite = 180 cm = 2 yard
+La largeur fait 1m15 
+(coupé en un seul morceau)
+Entretien : Nous recommandons fortement le lavage à la main dans une eau pas trop chaude pour préserver le tissu. 
+Mais si vous optez le lavage en machine , ne pas excéder les 30°
+LIVRAISON GRARUIT ET POSSIBLE DES 30 EÛROS D'ACHATS VERS L'EUROPE, ETATS UNIS, L'INTERNATIONAL</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/9cc2cd/2033589146/il_fullxfull.2033589146_46f9.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/JZJIYLR/96WXNABH-large.jpg</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>wax  tissu pagne africain coupon 45 cm x 118 cm</t>
+          <t>Tissus Wax , COUPON TISSU WAX AFRICAIN MOTIF: DISQUE</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>5,62 €</t>
+          <t>7,69 $</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>55 likes</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.
-            En savoir plus sur cet article</t>
+          <t>Tissu wax 100% coton. Avec une impression de très belle qualités et des couleurs vives, un deseign unique et dynamique.
+Ce tissu est parfait pour la confection de vos robes, costumes,tops, de vos loisirs créatifs et la décoration
+Sortez des sentiers battus et réalisez des vetements et accesoires pour toute la famille avec ce TISSU WAX MOTIF: DISQUE
+Le tissu wax vous offre 1001 possibilités
+Vendu par unités de 45 cm
+1 unite = 45 cm = 1 /2 yard
+2 unite = 90 cm = 1 yard
+3 unite = 135 cm = 1,5 yard
+4 unite = 180 cm = 2 yard
+La largeur fait 1m15 
+(coupé en un seul morceau)
+Entretien : Nous recommandons fortement le lavage à la main dans une eau pas trop chaude pour préserver le tissu. 
+Mais si vous optez le lavage en machine , ne pas excéder les 30°
+LIVRAISON GRARUIT ET POSSIBLE DES 30 EÛROS D'ACHATS VERS L'EUROPE, ETATS UNIS, L'INTERNATIONAL</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/cb9940/2081198271/il_fullxfull.2081198271_6kly.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/JZJIYLR/BU7LTNT7-large.jpg</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>wax  tissu pagne africain coupon 45 cm x 118 cm</t>
+          <t>Tissus Wax , COUPON TISSU WAX AFRICAIN MOTIF: DISQUE</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>5,62 €</t>
+          <t>7,69 $</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>55 likes</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.
-            En savoir plus sur cet article</t>
+          <t>Tissu wax 100% coton. Avec une impression de très belle qualités et des couleurs vives, un deseign unique et dynamique.
+Ce tissu est parfait pour la confection de vos robes, costumes,tops, de vos loisirs créatifs et la décoration
+Sortez des sentiers battus et réalisez des vetements et accesoires pour toute la famille avec ce TISSU WAX MOTIF: DISQUE
+Le tissu wax vous offre 1001 possibilités
+Vendu par unités de 45 cm
+1 unite = 45 cm = 1 /2 yard
+2 unite = 90 cm = 1 yard
+3 unite = 135 cm = 1,5 yard
+4 unite = 180 cm = 2 yard
+La largeur fait 1m15 
+(coupé en un seul morceau)
+Entretien : Nous recommandons fortement le lavage à la main dans une eau pas trop chaude pour préserver le tissu. 
+Mais si vous optez le lavage en machine , ne pas excéder les 30°
+LIVRAISON GRARUIT ET POSSIBLE DES 30 EÛROS D'ACHATS VERS L'EUROPE, ETATS UNIS, L'INTERNATIONAL</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/6e42cb/2081200367/il_fullxfull.2081200367_o697.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/DUHI9QU/ELT7XSFW-large.jpg</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>wax  tissu pagne africain coupon 45 cm x 118 cm</t>
+          <t>Tissus Wax , wax fleurs de mariage, wax fleurs de lys - wax tissu - rose - beige - blanc - rouge - jaune</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>5,62 €</t>
+          <t>6,59 $</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>87 likes</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.
-            En savoir plus sur cet article</t>
+          <t>Tissu vendu par 50 cm. La largeur fait toujours 120 cm pour n'importe quelle quantité (cela ne changera pas).
+Un tissu entier fait 5,50 mètres (6 yards) de longueur et 1,20 mètre de largeur.
+Exemple : si vous souhaitez commander 6 yards (5,50 mètres), il faut ajouter dans le panier 11 fois le produit que vous souhaitez commander.
+Calcul : 50 cm x 11 = 5,50 mètres
+VOUS AVEZ DES QUESTIONS ?
+Contactez nous sur AFRIKREA ou par mail : contact@modewax.fr
+Tissu Wax - Tissu Pagne - Tissu Africain - WAX
+Tissu fleurs de mariage - Tissu wax fleurs de mariage
+fleurs de lys - tissu pagne fleurs de lys - tissus
+Tissu Wax - Tissu Pagne - Tissu Africain - WAX - tissus - tissu - vert - violet - bleu turquoise - vert - violet - jaune
+ rose - beige - blanc - rouge - jaune or
+Tissu WAX, Pagne, Africain, fleurs de mariage, lys - rose - beige - blanc - rouge - jaune
+wax fleurs de mariage, wax fleurs de lys - wax tissu - rose - beige - blanc - rouge - jaune
+Longueur : 5,48 mètres (6 yards)
+Largeur : 1,18 mètre</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/97743b/2033591160/il_fullxfull.2033591160_clvp.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/Z8VUQF1/SNQ81FA4-large.jpg</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>wax  tissu pagne africain coupon 45 cm x 118 cm</t>
+          <t>Tissus Wax , Tissu WAX, Pagne, Africain, fleurs de mariage, lys - rose - beige - blanc - rouge - jaune</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>5,62 €</t>
+          <t>6,59 $</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>87 likes</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.
-            En savoir plus sur cet article</t>
+          <t>STOCK LIMITE - COMMANDEZ RAPIDEMENT !!!
+PREMIER ARRIVE - PREMIER SERVIE
+Tissu vendu par 50 cm. La largeur fait toujours 120 cm pour n'importe quelle quantité (cela ne changera pas).
+Un tissu entier fait 5,50 mètres (6 yards) de longueur et 1,20 mètre de largeur.
+Exemple : si vous souhaitez commander 6 yards (5,50 mètres), il faut ajouter dans le panier 11 fois le produit que vous souhaitez commander.
+Calcul : 50 cm x 11 = 5,50 mètres
+VOUS AVEZ DES QUESTIONS ?
+Contactez nous sur AFRIKREA ou par mail : contact@modewax.fr
+Tissu Wax - Tissu Pagne - Tissu Africain - WAX
+Tissu fleurs de mariage - Tissu wax fleurs de mariage
+fleurs de lys - tissu pagne fleurs de lys - tissus
+Tissu Wax - Tissu Pagne - Tissu Africain - WAX - tissus - tissu - vert - violet - bleu turquoise - vert - violet - jaune
+ rose - beige - blanc - rouge - jaune or
+Tissu WAX, Pagne, Africain, fleurs de mariage, lys - rose - beige - blanc - rouge - jaune</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/e730ef/2033592380/il_fullxfull.2033592380_7fw0.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/KW7M91M/UUWMC3MJ-large.jpg</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>wax  tissu pagne africain coupon 45 cm x 118 cm</t>
+          <t>Tissus Wax , Tissus - Tissu - Wax - Tissu Wax Fleur de mariage - Fleurs de mariage - Tissu Pagne - Tissu Africain</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>5,62 €</t>
+          <t>6,59 $</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>87 likes</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.
-            En savoir plus sur cet article</t>
+          <t>Tissu vendu par 50 cm. La largeur fait toujours 120 cm pour n'importe quelle quantité (cela ne changera pas).
+Un tissu entier fait 5,50 mètres (6 yards) de longueur et 1,20 mètre de largeur.
+Exemple : si vous souhaitez commander 6 yards (5,50 mètres), il faut ajouter dans le panier 11 fois le produit que vous souhaitez commander.
+Calcul : 50 cm x 11 = 5,50 mètres
+VOUS AVEZ DES QUESTIONS ?
+Contactez nous sur AFRIKREA ou par mail : contact@modewax.fr
+Tissus - Tissu - Wax - Tissu Wax Fleur de mariage - Fleurs de mariage - Tissu Pagne - Tissu Africain</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/609e99/1950816721/il_fullxfull.1950816721_htla.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/SUAAN3C/SSUBE519-large.jpg</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Wax  Tissu pagne africain en coupon 45 cm x 115 cm</t>
+          <t>Tissus Wax , Tissu WAX, Pagne, Africain, fleurs de mariage, lys, rose, beige, vert, violet, rouge, jaune</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>4,90 €</t>
+          <t>6,59 $</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>87 likes</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.
-            En savoir plus sur cet article</t>
+          <t>Tissu vendu par 50 cm. La largeur fait toujours 120 cm pour n'importe quelle quantité (cela ne changera pas).
+Un tissu entier fait 5,50 mètres (6 yards) de longueur et 1,20 mètre de largeur.
+Exemple : si vous souhaitez commander 6 yards (5,50 mètres), il faut ajouter dans le panier 11 fois le produit que vous souhaitez commander.
+Calcul : 50 cm x 11 = 5,50 mètres
+VOUS AVEZ DES QUESTIONS ?
+Contactez nous sur AFRIKREA ou par mail : contact@modewax.fr
+Tissu Wax - Tissu Pagne - Tissu Africain - WAX
+Tissu fleurs de mariage - Tissu wax fleurs de mariage
+fleurs de lys - tissu pagne fleurs de lys - tissus
+Tissu Wax - Tissu Pagne - Tissu Africain - WAX - tissus - tissu - vert - violet - bleu turquoise - vert - violet - jaune
+ rose - beige - blanc - rouge - jaune or
+Tissu WAX, Pagne, Africain, fleurs de mariage, lys - rose - beige - blanc - rouge - jaune
+rose - beige - multicolor - rouge - jaune
+rose - beige - vert - violet - rouge</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/64a2f0/1284966851/il_fullxfull.1284966851_s18t.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/YCB9C3S/3B384XZI-large.jpg</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Wax  Tissu pagne africain en coupon 45 cm x 115 cm</t>
+          <t>Tissus Wax , COUPON TISSU WAX AFRICAIN TISSU MELANGE: POLYESTER ET COTON</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>4,90 €</t>
+          <t>4,95 $</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>55 likes</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.
-            En savoir plus sur cet article</t>
+          <t>Tissu mélangé polyester et coton. Avec une impression de très belle qualités et des couleurs vives, un deseign unique et dynamique.
+Ce tissu est parfait pour la confection de vos robes, costumes,tops, de vos loisirs créatifs et la décoration
+Sortez des sentiers battus et réalisez des vetements et accesoires pour toute la famille.
+Le tissu wax vous offre 1001 possibilités
+vendu par unités de 45 cm
+1 unite = 45 cm = 1/2 yard
+2 unite = 90 cm = 1 yard
+3 unite = 135 cm = 1,5 yard
+4 unite = 180 cm = 2 yard
+La largeur fait 1m15
+(coupé en un seul morceau)
+Entretien : Nous recommandons fortement le lavage à la main dans une eau pas trop chaude pour préserver le tissu. 
+Mais si vous optez le lavage en machine , ne pas excéder les 30°
+LIVRAISON GRATUIT ET POSSIBLE DES 30 EUROS D'ACHATS EN EUROPE, ETATS UNIS ET L'INTERNATIONAL</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/511e4a/1237733550/il_fullxfull.1237733550_gg0e.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/YCB9C3S/ZBL132E6-large.jpg</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Wax  Tissu pagne africain en coupon 45 cm x 115 cm</t>
+          <t>Tissus Wax , COUPON TISSU WAX AFRICAIN TISSU MELANGE: POLYESTER ET COTON</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>4,90 €</t>
+          <t>4,95 $</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>55 likes</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.
-            En savoir plus sur cet article</t>
+          <t>Tissu mélangé polyester et coton. Avec une impression de très belle qualités et des couleurs vives, un deseign unique et dynamique.
+Ce tissu est parfait pour la confection de vos robes, costumes,tops, de vos loisirs créatifs et la décoration
+Sortez des sentiers battus et réalisez des vetements et accesoires pour toute la famille.
+Le tissu wax vous offre 1001 possibilités
+vendu par unités de 45 cm
+1 unite = 45 cm = 1/2 yard
+2 unite = 90 cm = 1 yard
+3 unite = 135 cm = 1,5 yard
+4 unite = 180 cm = 2 yard
+La largeur fait 1m15
+(coupé en un seul morceau)
+Entretien : Nous recommandons fortement le lavage à la main dans une eau pas trop chaude pour préserver le tissu. 
+Mais si vous optez le lavage en machine , ne pas excéder les 30°
+LIVRAISON GRATUIT ET POSSIBLE DES 30 EUROS D'ACHATS EN EUROPE, ETATS UNIS ET L'INTERNATIONAL</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/b195f9/1903280134/il_fullxfull.1903280134_kaj4.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/V7J3QME/SXIJMRH5-large.jpg</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Wax  Tissu pagne africain en coupon 45 cm x 115 cm</t>
+          <t>Tissus Wax , Coupon pagne ciré imprimé géométriques</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>4,90 €</t>
+          <t>12,10 $</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.
-            En savoir plus sur cet article</t>
+          <t>joli tissu wax africain bleu et blanc, imprimés géométriques 
+Tissu ciré
+impression recto-verso
+Plusieurs coloris et motifs disponibles dans la boutique
+laize : 1,17 mètres 
+composition : coton 
+Entretien : Nous recommandons le lavage à la main dans une eau pas trop chaude pour préserver le tissu.
+Mais si vous optez le lavage en machine , ne pas excéder les  30°
+vendu par unités de 0,50 mètre 
+pour 1 mètre, prendre la quantité 2 
+pour 1,50 mètres, quantité 3 
+pour 2 mètres, quantité 4... 
+(coupé en un seul morceau)
+LES TISSUS SONT VENDUS A LA COUPE, ils ne sont ni repris ni échangés, merci de votre compréhension.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/9ecab7/1903281266/il_fullxfull.1903281266_hi0e.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/V7J3QME/RXDPSFXC-large.jpg</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Wax  Tissu pagne africain en coupon 45 cm x 115 cm</t>
+          <t>Tissus Wax , Coupon pagne ciré imprimé géométriques</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>4,90 €</t>
+          <t>12,10 $</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.
-            En savoir plus sur cet article</t>
+          <t>joli tissu wax africain bleu et blanc, imprimés géométriques 
+Tissu ciré
+impression recto-verso
+Plusieurs coloris et motifs disponibles dans la boutique
+laize : 1,17 mètres 
+composition : coton 
+Entretien : Nous recommandons le lavage à la main dans une eau pas trop chaude pour préserver le tissu.
+Mais si vous optez le lavage en machine , ne pas excéder les  30°
+vendu par unités de 0,50 mètre 
+pour 1 mètre, prendre la quantité 2 
+pour 1,50 mètres, quantité 3 
+pour 2 mètres, quantité 4... 
+(coupé en un seul morceau)
+LES TISSUS SONT VENDUS A LA COUPE, ils ne sont ni repris ni échangés, merci de votre compréhension.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/d3db26/1766589187/il_fullxfull.1766589187_kt8g.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/V7J3QME/XWK7Z834-large.jpg</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>tissu wax jaune rouge</t>
+          <t>Tissus Wax , Coupon pagne ciré imprimé géométriques</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>5,17 €+</t>
+          <t>12,10 $</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>lagracewax</t>
+          <t>joli tissu wax africain bleu et blanc, imprimés géométriques 
+Tissu ciré
+impression recto-verso
+Plusieurs coloris et motifs disponibles dans la boutique
+laize : 1,17 mètres 
+composition : coton 
+Entretien : Nous recommandons le lavage à la main dans une eau pas trop chaude pour préserver le tissu.
+Mais si vous optez le lavage en machine , ne pas excéder les  30°
+vendu par unités de 0,50 mètre 
+pour 1 mètre, prendre la quantité 2 
+pour 1,50 mètres, quantité 3 
+pour 2 mètres, quantité 4... 
+(coupé en un seul morceau)
+LES TISSUS SONT VENDUS A LA COUPE, ils ne sont ni repris ni échangés, merci de votre compréhension.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/f6c88d/1719113062/il_fullxfull.1719113062_7zd5.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/V7J3QME/N1DMCA2Q-large.jpg</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>tissu wax jaune rouge</t>
+          <t>Tissus Wax , Coupon pagne ciré imprimé géométriques</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>5,17 €+</t>
+          <t>12,10 $</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>lagracewax</t>
+          <t>joli tissu wax africain bleu et blanc, imprimés géométriques 
+Tissu ciré
+impression recto-verso
+Plusieurs coloris et motifs disponibles dans la boutique
+laize : 1,17 mètres 
+composition : coton 
+Entretien : Nous recommandons le lavage à la main dans une eau pas trop chaude pour préserver le tissu.
+Mais si vous optez le lavage en machine , ne pas excéder les  30°
+vendu par unités de 0,50 mètre 
+pour 1 mètre, prendre la quantité 2 
+pour 1,50 mètres, quantité 3 
+pour 2 mètres, quantité 4... 
+(coupé en un seul morceau)
+LES TISSUS SONT VENDUS A LA COUPE, ils ne sont ni repris ni échangés, merci de votre compréhension.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/c89db6/1719130458/il_fullxfull.1719130458_93y0.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/V7J3QME/I4B41C6F-large.jpg</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>tissu wax jaune rouge</t>
+          <t>Tissus Wax , Coupon pagne ciré imprimé géométriques</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>5,17 €+</t>
+          <t>12,10 $</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>lagracewax</t>
+          <t>joli tissu wax africain bleu et blanc, imprimés géométriques 
+Tissu ciré
+impression recto-verso
+Plusieurs coloris et motifs disponibles dans la boutique
+laize : 1,17 mètres 
+composition : coton 
+Entretien : Nous recommandons le lavage à la main dans une eau pas trop chaude pour préserver le tissu.
+Mais si vous optez le lavage en machine , ne pas excéder les  30°
+vendu par unités de 0,50 mètre 
+pour 1 mètre, prendre la quantité 2 
+pour 1,50 mètres, quantité 3 
+pour 2 mètres, quantité 4... 
+(coupé en un seul morceau)
+LES TISSUS SONT VENDUS A LA COUPE, ils ne sont ni repris ni échangés, merci de votre compréhension.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/fcbf3e/1766587085/il_fullxfull.1766587085_j1xa.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/8HH1XWX/UA7L62SN-large.jpg</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>tissu wax jaune rouge</t>
+          <t>Tissus Wax , Tissu wax par mètres</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>5,17 €+</t>
+          <t>14,27 $</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>59 likes</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>lagracewax</t>
+          <t>Tissu wax vendu par mètres.
+5,99€/mètre
+Différents motifs disponibles</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/723557/1719133240/il_fullxfull.1719133240_lbsl.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/MJV98DX/E5QWV3CC-large.jpg</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>tissu wax jaune rouge</t>
+          <t>Tissus Wax , COUPON TISSU WAX AFRICAIN</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>5,17 €+</t>
+          <t>6,59 $</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>55 likes</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>lagracewax</t>
+          <t>Tissu wax 100% coton. Avec une impression de très belle qualités et des couleurs vives, un deseign unique et dynamique.
+Ce tissu est parfait pour la confection de vos robes, costumes,tops, de vos loisirs créatifs et la décoration
+Sortez des sentiers battus et réalisez des vetements et accesoires pour toute la famille avec ce TISSU WAX 
+Le tissu wax vous offre 1001 possibilités
+Vendu par unités de 45 cm
+1 unite = 45 cm = 1/2 yard
+2 unite = 90 cm = 1 yard
+3 unite = 135 cm = 1,5 yard
+4 unite 180 cm = 2 yard
+La largeur fait 1m15
+(coupé en un seul morceau)
+Entretien : Nous recommandons fortement le lavage à la main dans une eau pas trop chaude pour préserver le tissu. 
+Mais si vous optez le lavage en machine , ne pas excéder les 30°
+LIVRAISON GRATUIT ET POSSIBLE A PARTIR DE 30 EUROS D'ACHATS EN EUROPE', ETATS UNIS ET L'INTERNATIONAL</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/b19049/1944320586/il_fullxfull.1944320586_74ej.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/MJV98DX/YQZZNWXM-large.jpg</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>tissu wax</t>
+          <t>Tissus Wax , COUPON TISSU WAX AFRICAIN</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>5,62 €</t>
+          <t>6,59 $</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>55 likes</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons. Coloris: , bleu, rose vert
-            En savoir plus sur cet article</t>
+          <t>Tissu wax 100% coton. Avec une impression de très belle qualités et des couleurs vives, un deseign unique et dynamique.
+Ce tissu est parfait pour la confection de vos robes, costumes,tops, de vos loisirs créatifs et la décoration
+Sortez des sentiers battus et réalisez des vetements et accesoires pour toute la famille avec ce TISSU WAX 
+Le tissu wax vous offre 1001 possibilités
+Vendu par unités de 45 cm
+1 unite = 45 cm = 1/2 yard
+2 unite = 90 cm = 1 yard
+3 unite = 135 cm = 1,5 yard
+4 unite 180 cm = 2 yard
+La largeur fait 1m15
+(coupé en un seul morceau)
+Entretien : Nous recommandons fortement le lavage à la main dans une eau pas trop chaude pour préserver le tissu. 
+Mais si vous optez le lavage en machine , ne pas excéder les 30°
+LIVRAISON GRATUIT ET POSSIBLE A PARTIR DE 30 EUROS D'ACHATS EN EUROPE', ETATS UNIS ET L'INTERNATIONAL</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/321817/1301510632/il_fullxfull.1301510632_a5dm.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/MJV98DX/AZP46ZEX-large.jpg</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>tissu wax</t>
+          <t>Tissus Wax , COUPON TISSU WAX AFRICAIN</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>5,62 €</t>
+          <t>6,59 $</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>55 likes</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons. Coloris: , bleu, rose vert
-            En savoir plus sur cet article</t>
+          <t>Tissu wax 100% coton. Avec une impression de très belle qualités et des couleurs vives, un deseign unique et dynamique.
+Ce tissu est parfait pour la confection de vos robes, costumes,tops, de vos loisirs créatifs et la décoration
+Sortez des sentiers battus et réalisez des vetements et accesoires pour toute la famille avec ce TISSU WAX 
+Le tissu wax vous offre 1001 possibilités
+Vendu par unités de 45 cm
+1 unite = 45 cm = 1/2 yard
+2 unite = 90 cm = 1 yard
+3 unite = 135 cm = 1,5 yard
+4 unite 180 cm = 2 yard
+La largeur fait 1m15
+(coupé en un seul morceau)
+Entretien : Nous recommandons fortement le lavage à la main dans une eau pas trop chaude pour préserver le tissu. 
+Mais si vous optez le lavage en machine , ne pas excéder les 30°
+LIVRAISON GRATUIT ET POSSIBLE A PARTIR DE 30 EUROS D'ACHATS EN EUROPE', ETATS UNIS ET L'INTERNATIONAL</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/d95675/1991860771/il_fullxfull.1991860771_byby.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/MJV98DX/C13U31EF-large.jpg</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>tissu wax</t>
+          <t>Tissus Wax , COUPON TISSU WAX AFRICAIN</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>5,62 €</t>
+          <t>6,59 $</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>55 likes</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons. Coloris: , bleu, rose vert
-            En savoir plus sur cet article</t>
+          <t>Tissu wax 100% coton. Avec une impression de très belle qualités et des couleurs vives, un deseign unique et dynamique.
+Ce tissu est parfait pour la confection de vos robes, costumes,tops, de vos loisirs créatifs et la décoration
+Sortez des sentiers battus et réalisez des vetements et accesoires pour toute la famille avec ce TISSU WAX 
+Le tissu wax vous offre 1001 possibilités
+Vendu par unités de 45 cm
+1 unite = 45 cm = 1/2 yard
+2 unite = 90 cm = 1 yard
+3 unite = 135 cm = 1,5 yard
+4 unite 180 cm = 2 yard
+La largeur fait 1m15
+(coupé en un seul morceau)
+Entretien : Nous recommandons fortement le lavage à la main dans une eau pas trop chaude pour préserver le tissu. 
+Mais si vous optez le lavage en machine , ne pas excéder les 30°
+LIVRAISON GRATUIT ET POSSIBLE A PARTIR DE 30 EUROS D'ACHATS EN EUROPE', ETATS UNIS ET L'INTERNATIONAL</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/441c1f/1991858513/il_fullxfull.1991858513_c3z3.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/IBI2RKS/DXMV28IF-large.jpg</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>tissu wax</t>
+          <t>Tissus Wax , COUPON TISSU WAX AFRICAIN</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>5,62 €</t>
+          <t>6,59 $</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>55 likes</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons. Coloris: , bleu, rose vert
-            En savoir plus sur cet article</t>
+          <t>Tissu wax 100% coton. Avec une impression de très belle qualités et des couleurs vives, un deseign unique et dynamique.
+Ce tissu est parfait pour la confection de vos robes, costumes,tops, de vos loisirs créatifs et la décoration
+Sortez des sentiers battus et réalisez des vetements et accesoires pour toute la famille avec ce TISSU WAX 
+Le tissu wax vous offre 1001 possibilités
+Vendu par unités de 45 cm
+1 unite = 45 cm = 1/2 yard
+2 unite = 90 cm = 1 yard
+3 unite = 135 cm = 1,5 yard
+4 unite = 180 cm = 2 yard...
+La largeur fait 1m15
+(coupé en un seul morceau)
+Entretien : Nous recommandons fortement le lavage à la main dans une eau pas trop chaude pour préserver le tissu. 
+Mais si vous optez le lavage en machine , ne pas excéder les 30°
+LIVRAISON GRATUIT ET POSSIBLE A PARTIR DE 30 EUROS D'ACHATS VERS L'EUROPE, ETATS UNIS ET L'INTERNATIONAL</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/f7c514/1991861587/il_fullxfull.1991861587_tqs4.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/IBI2RKS/AH8A7H9I-large.jpg</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>tissu wax</t>
+          <t>Tissus Wax , COUPON TISSU WAX AFRICAIN</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>5,62 €</t>
+          <t>6,59 $</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>55 likes</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons. Coloris: , bleu, rose vert
-            En savoir plus sur cet article</t>
+          <t>Tissu wax 100% coton. Avec une impression de très belle qualités et des couleurs vives, un deseign unique et dynamique.
+Ce tissu est parfait pour la confection de vos robes, costumes,tops, de vos loisirs créatifs et la décoration
+Sortez des sentiers battus et réalisez des vetements et accesoires pour toute la famille avec ce TISSU WAX 
+Le tissu wax vous offre 1001 possibilités
+Vendu par unités de 45 cm
+1 unite = 45 cm = 1/2 yard
+2 unite = 90 cm = 1 yard
+3 unite = 135 cm = 1,5 yard
+4 unite = 180 cm = 2 yard...
+La largeur fait 1m15
+(coupé en un seul morceau)
+Entretien : Nous recommandons fortement le lavage à la main dans une eau pas trop chaude pour préserver le tissu. 
+Mais si vous optez le lavage en machine , ne pas excéder les 30°
+LIVRAISON GRATUIT ET POSSIBLE A PARTIR DE 30 EUROS D'ACHATS VERS L'EUROPE, ETATS UNIS ET L'INTERNATIONAL</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/391590/1348763239/il_fullxfull.1348763239_n459.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/IBI2RKS/PNYLME6I-large.jpg</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>tissu wax</t>
+          <t>Tissus Wax , COUPON TISSU WAX AFRICAIN</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>5,62 €</t>
+          <t>6,59 $</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>55 likes</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons. Coloris: , bleu, rose vert
-            En savoir plus sur cet article</t>
+          <t>Tissu wax 100% coton. Avec une impression de très belle qualités et des couleurs vives, un deseign unique et dynamique.
+Ce tissu est parfait pour la confection de vos robes, costumes,tops, de vos loisirs créatifs et la décoration
+Sortez des sentiers battus et réalisez des vetements et accesoires pour toute la famille avec ce TISSU WAX 
+Le tissu wax vous offre 1001 possibilités
+Vendu par unités de 45 cm
+1 unite = 45 cm = 1/2 yard
+2 unite = 90 cm = 1 yard
+3 unite = 135 cm = 1,5 yard
+4 unite = 180 cm = 2 yard...
+La largeur fait 1m15
+(coupé en un seul morceau)
+Entretien : Nous recommandons fortement le lavage à la main dans une eau pas trop chaude pour préserver le tissu. 
+Mais si vous optez le lavage en machine , ne pas excéder les 30°
+LIVRAISON GRATUIT ET POSSIBLE A PARTIR DE 30 EUROS D'ACHATS VERS L'EUROPE, ETATS UNIS ET L'INTERNATIONAL</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/2ce76c/1301511576/il_fullxfull.1301511576_r58g.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/IBI2RKS/9UABWNNX-large.jpg</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>tissu wax</t>
+          <t>Tissus Wax , COUPON TISSU WAX AFRICAIN</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>5,62 €</t>
+          <t>6,59 $</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>55 likes</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons. Coloris: , bleu, rose vert
-            En savoir plus sur cet article</t>
+          <t>Tissu wax 100% coton. Avec une impression de très belle qualités et des couleurs vives, un deseign unique et dynamique.
+Ce tissu est parfait pour la confection de vos robes, costumes,tops, de vos loisirs créatifs et la décoration
+Sortez des sentiers battus et réalisez des vetements et accesoires pour toute la famille avec ce TISSU WAX 
+Le tissu wax vous offre 1001 possibilités
+Vendu par unités de 45 cm
+1 unite = 45 cm = 1/2 yard
+2 unite = 90 cm = 1 yard
+3 unite = 135 cm = 1,5 yard
+4 unite = 180 cm = 2 yard...
+La largeur fait 1m15
+(coupé en un seul morceau)
+Entretien : Nous recommandons fortement le lavage à la main dans une eau pas trop chaude pour préserver le tissu. 
+Mais si vous optez le lavage en machine , ne pas excéder les 30°
+LIVRAISON GRATUIT ET POSSIBLE A PARTIR DE 30 EUROS D'ACHATS VERS L'EUROPE, ETATS UNIS ET L'INTERNATIONAL</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/a78b4c/1991859907/il_fullxfull.1991859907_vk52.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/IBI2RKS/PIUJ4MPN-large.jpg</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>tissu wax</t>
+          <t>Tissus Wax , COUPON TISSU WAX AFRICAIN</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>5,62 €</t>
+          <t>6,59 $</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>55 likes</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons. Coloris: , bleu, rose vert
-            En savoir plus sur cet article</t>
+          <t>Tissu wax 100% coton. Avec une impression de très belle qualités et des couleurs vives, un deseign unique et dynamique.
+Ce tissu est parfait pour la confection de vos robes, costumes,tops, de vos loisirs créatifs et la décoration
+Sortez des sentiers battus et réalisez des vetements et accesoires pour toute la famille avec ce TISSU WAX 
+Le tissu wax vous offre 1001 possibilités
+Vendu par unités de 45 cm
+1 unite = 45 cm = 1/2 yard
+2 unite = 90 cm = 1 yard
+3 unite = 135 cm = 1,5 yard
+4 unite = 180 cm = 2 yard...
+La largeur fait 1m15
+(coupé en un seul morceau)
+Entretien : Nous recommandons fortement le lavage à la main dans une eau pas trop chaude pour préserver le tissu. 
+Mais si vous optez le lavage en machine , ne pas excéder les 30°
+LIVRAISON GRATUIT ET POSSIBLE A PARTIR DE 30 EUROS D'ACHATS VERS L'EUROPE, ETATS UNIS ET L'INTERNATIONAL</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/b34319/2122781859/il_fullxfull.2122781859_6btk.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/U2FFRXJ/XMH4M5P3-large.jpg</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Wax  Tissu pagne africain en coupon  90 cm x 116 cm</t>
+          <t>Tissus Wax , Wax, Tissu wax, fleurs de mariage, lys, hibiscus, Pagne africain (100% Coton), orange, jaune, rose</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>11,25 €</t>
+          <t>6,59 $</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>87 likes</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.Couleurs: fond jaune
-            En savoir plus sur cet article</t>
+          <t>Tissu vendu par 50 cm. La largeur fait toujours 120 cm pour n'importe quelle quantité (cela ne changera pas).
+Un tissu entier fait 5,50 mètres (6 yards) de longueur et 1,20 mètre de largeur.
+Exemple : si vous souhaitez commander 6 yards (5,50 mètres), il faut ajouter dans le panier 11 fois le produit que vous souhaitez commander.
+Calcul : 50 cm x 11 = 5,50 mètres
+VOUS AVEZ DES QUESTIONS ?
+Contactez nous sur AFRIKREA ou par mail : contact@modewax.fr
+Wax, Tissu wax, fleurs de mariage, lys, hibiscus, Pagne africain (100% Coton), orange, jaune, or, rose
+Tissu fleurs de mariage - Tissu wax fleurs de mariage
+fleurs de lys - tissu pagne fleurs de lys - tissus
+Tissu Wax - Tissu Pagne - Tissu Africain - WAX - tissus - tissu - vert - violet - bleu turquoise - vert - violet - jaune
+ rose - beige - blanc - rouge - jaune or
+Tissu WAX, Pagne, Africain, fleurs de mariage, lys - rose - beige - blanc - rouge - jaune
+wax fleurs de mariage, wax fleurs de lys - wax tissu - rose - beige - blanc - rouge - jaune
+Longueur : 5,48 mètres (6 yards)
+Largeur : 1,18 mètre</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/b3f1a6/1405381329/il_fullxfull.1405381329_m2ew.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/BQMXPQS/MPIHLYP2-large.jpg</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Wax  Tissu pagne africain en coupon  90 cm x 116 cm</t>
+          <t>Tissus Wax , Tissus - Tissu - Wax - Tissu Wax Fleur de mariage - Fleurs de mariage - Tissu Pagne - Tissu Africain</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>11,25 €</t>
+          <t>6,59 $</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>87 likes</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.Couleurs: fond jaune
-            En savoir plus sur cet article</t>
+          <t>Tissu vendu par 50 cm. La largeur fait toujours 120 cm pour n'importe quelle quantité (cela ne changera pas).
+Un tissu entier fait 5,50 mètres (6 yards) de longueur et 1,20 mètre de largeur.
+Exemple : si vous souhaitez commander 6 yards (5,50 mètres), il faut ajouter dans le panier 11 fois le produit que vous souhaitez commander.
+Calcul : 50 cm x 11 = 5,50 mètres
+VOUS AVEZ DES QUESTIONS ?
+Contactez nous sur AFRIKREA ou par mail : contact@modewax.fr
+Tissus - Tissu - Wax - Tissu Wax Fleur de mariage - Fleurs de mariage - Tissu Pagne - Tissu Africain</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/79bf40/2010262622/il_fullxfull.2010262622_8vuw.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/BQMXPQS/5KVATKPQ-large.jpg</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Wax  Tissu pagne africain en coupon  90 cm x 116 cm</t>
+          <t>Tissus Wax , Tissus - Tissu - Wax - Tissu Wax Fleur de mariage - Fleurs de mariage - Tissu Pagne - Tissu Africain</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>11,25 €</t>
+          <t>6,59 $</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>87 likes</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.Couleurs: fond jaune
-            En savoir plus sur cet article</t>
+          <t>Tissu vendu par 50 cm. La largeur fait toujours 120 cm pour n'importe quelle quantité (cela ne changera pas).
+Un tissu entier fait 5,50 mètres (6 yards) de longueur et 1,20 mètre de largeur.
+Exemple : si vous souhaitez commander 6 yards (5,50 mètres), il faut ajouter dans le panier 11 fois le produit que vous souhaitez commander.
+Calcul : 50 cm x 11 = 5,50 mètres
+VOUS AVEZ DES QUESTIONS ?
+Contactez nous sur AFRIKREA ou par mail : contact@modewax.fr
+Tissus - Tissu - Wax - Tissu Wax Fleur de mariage - Fleurs de mariage - Tissu Pagne - Tissu Africain</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/d231d4/1405382625/il_fullxfull.1405382625_4v39.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/T2T39MX/1TXN3383-large.jpg</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Wax  Tissu pagne africain en coupon  90 cm x 116 cm</t>
+          <t>Tissus Wax , Tissu wax (par 50 centimètres) fleurs de mariage roses - 100% coton</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>11,25 €</t>
+          <t>12,14 $</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>18 likes</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.Couleurs: fond jaune
-            En savoir plus sur cet article</t>
+          <t>Tissu imprimé wax africain
+Couleur : rose
+Dimension : wax vendu par 50 centimetres, largeur 116 cm
+Matière : 100 % coton 
+Idéal pour la couture, la déco, etc. : colorez votre garde-robe, vos accessoires ou votre intérieur grâce à ce joli imprimé wax.
+Tissu wax lavable en machine à 30°C après un premier lavage à la main. Repassage côté envers du tissu.
+Vous souhaitez commander 1 mètre de ce tissu wax, choisissez quantité 2, pour 1 mètre 50, choisissez quantité 3, pour 2 mètres, choisissez quantité 4... Il vous sera livré en un seul morceau.
+N'hésitez pas à me contacter pour toute question.</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/f8ba64/2122782621/il_fullxfull.2122782621_sf6l.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/HARD33Q/2ZWN21KH-large.jpg</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Wax  Tissu pagne africain en coupon  90 cm x 116 cm</t>
+          <t>Tissus Wax , Coupon Pagne wax ciré hibiscus</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>11,25 €</t>
+          <t>11,55 $</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.Couleurs: fond jaune
-            En savoir plus sur cet article</t>
+          <t>Joli pagne wax africain Motif hibiscus, fond blanc et fleurs rouges
+Tissu ciré 
+impression recto-verso
+Plusieurs coloris et motifs disponibles dans la boutique.
+laize : 1,17 mètres
+composition : coton
+Entretien : Nous recommandons fortement le lavage à la main dans une eau pas trop chaude et un savon doux comme le savon de Marseille pour préserver le tissu.
+Mais si vous optez le lavage en machine , ne pas excéder les  30°
+Séchage au sèche linge à proscrire
+vendu par unités de 0,50 mètre
+pour 1 mètre, prendre la quantité 2
+pour 1,50 mètres, quantité 3
+pour 2 mètres, quantité 4... 
+(coupé en un seul morceau)
+LES TISSUS SONT VENDUS A LA COUPE, ils ne sont ni repris ni échangés, merci de votre compréhension.</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/50eb0d/2010264098/il_fullxfull.2010264098_g4xa.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/HARD33Q/EX2RXP4E-large.jpg</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Wax  Tissu pagne africain en coupon  90 cm x 116 cm</t>
+          <t>Tissus Wax , Coupon Pagne wax ciré hibiscus</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>11,25 €</t>
+          <t>11,55 $</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.Couleurs: fond jaune
-            En savoir plus sur cet article</t>
+          <t>Joli pagne wax africain Motif hibiscus, fond blanc et fleurs rouges
+Tissu ciré 
+impression recto-verso
+Plusieurs coloris et motifs disponibles dans la boutique.
+laize : 1,17 mètres
+composition : coton
+Entretien : Nous recommandons fortement le lavage à la main dans une eau pas trop chaude et un savon doux comme le savon de Marseille pour préserver le tissu.
+Mais si vous optez le lavage en machine , ne pas excéder les  30°
+Séchage au sèche linge à proscrire
+vendu par unités de 0,50 mètre
+pour 1 mètre, prendre la quantité 2
+pour 1,50 mètres, quantité 3
+pour 2 mètres, quantité 4... 
+(coupé en un seul morceau)
+LES TISSUS SONT VENDUS A LA COUPE, ils ne sont ni repris ni échangés, merci de votre compréhension.</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/20a931/1358117632/il_fullxfull.1358117632_7bg4.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/HARD33Q/88XNLPXK-large.jpg</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Wax  Tissu pagne africain en coupon  90 cm x 116 cm</t>
+          <t>Tissus Wax , Coupon Pagne wax ciré hibiscus</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>11,25 €</t>
+          <t>11,55 $</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.Couleurs: fond jaune
-            En savoir plus sur cet article</t>
+          <t>Joli pagne wax africain Motif hibiscus, fond blanc et fleurs rouges
+Tissu ciré 
+impression recto-verso
+Plusieurs coloris et motifs disponibles dans la boutique.
+laize : 1,17 mètres
+composition : coton
+Entretien : Nous recommandons fortement le lavage à la main dans une eau pas trop chaude et un savon doux comme le savon de Marseille pour préserver le tissu.
+Mais si vous optez le lavage en machine , ne pas excéder les  30°
+Séchage au sèche linge à proscrire
+vendu par unités de 0,50 mètre
+pour 1 mètre, prendre la quantité 2
+pour 1,50 mètres, quantité 3
+pour 2 mètres, quantité 4... 
+(coupé en un seul morceau)
+LES TISSUS SONT VENDUS A LA COUPE, ils ne sont ni repris ni échangés, merci de votre compréhension.</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/13a40a/2057853157/il_fullxfull.2057853157_c5qt.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/HARD33Q/WF2KL8IB-large.jpg</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Wax  Tissu pagne africain en coupon  90 cm x 116 cm</t>
+          <t>Tissus Wax , Coupon Pagne wax ciré hibiscus</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>11,25 €</t>
+          <t>11,55 $</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.Couleurs: fond jaune
-            En savoir plus sur cet article</t>
+          <t>Joli pagne wax africain Motif hibiscus, fond blanc et fleurs rouges
+Tissu ciré 
+impression recto-verso
+Plusieurs coloris et motifs disponibles dans la boutique.
+laize : 1,17 mètres
+composition : coton
+Entretien : Nous recommandons fortement le lavage à la main dans une eau pas trop chaude et un savon doux comme le savon de Marseille pour préserver le tissu.
+Mais si vous optez le lavage en machine , ne pas excéder les  30°
+Séchage au sèche linge à proscrire
+vendu par unités de 0,50 mètre
+pour 1 mètre, prendre la quantité 2
+pour 1,50 mètres, quantité 3
+pour 2 mètres, quantité 4... 
+(coupé en un seul morceau)
+LES TISSUS SONT VENDUS A LA COUPE, ils ne sont ni repris ni échangés, merci de votre compréhension.</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/c415f1/2075217130/il_fullxfull.2075217130_ndof.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/HARD33Q/LN5VWBV3-large.jpg</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Wax  Tissu pagne africain en coupon  90 cm x 116 cm</t>
+          <t>Tissus Wax , Coupon Pagne wax ciré hibiscus</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>11,25 €</t>
+          <t>11,55 $</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.Couleurs: fond jaune
-            En savoir plus sur cet article</t>
+          <t>Joli pagne wax africain Motif hibiscus, fond blanc et fleurs rouges
+Tissu ciré 
+impression recto-verso
+Plusieurs coloris et motifs disponibles dans la boutique.
+laize : 1,17 mètres
+composition : coton
+Entretien : Nous recommandons fortement le lavage à la main dans une eau pas trop chaude et un savon doux comme le savon de Marseille pour préserver le tissu.
+Mais si vous optez le lavage en machine , ne pas excéder les  30°
+Séchage au sèche linge à proscrire
+vendu par unités de 0,50 mètre
+pour 1 mètre, prendre la quantité 2
+pour 1,50 mètres, quantité 3
+pour 2 mètres, quantité 4... 
+(coupé en un seul morceau)
+LES TISSUS SONT VENDUS A LA COUPE, ils ne sont ni repris ni échangés, merci de votre compréhension.</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/2f9041/2075217382/il_fullxfull.2075217382_g2wc.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/RDLZJXM/78ZXSBFS-large.jpg</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Wax  Tissu pagne africain en coupon  90 cm x 116 cm</t>
+          <t>Tissus Wax , Tissu Africain Wax S 716</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>11,25 €</t>
+          <t>15,18 $</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>2 likes</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.Couleurs: fond jaune
-            En savoir plus sur cet article</t>
+          <t>Tissu africain 100% coton, de type Wax, résistant, léger, aux couleurs éclatantes utilisé traditionnellement en Afrique pour les vêtements (boubou, pagne, chemise, robe,etc…)
+La wax se décline de nos jours dans les secteurs variés de la confection textile, rideau, travaux manuels.
+Vendu au mètre
+Conseils d'entretien :
+lavage à 30 degrés,
+repassage,
+pas de javel
+Il est conseillé de laver séparément au 1er lavage</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/15cf5e/1546525537/il_fullxfull.1546525537_58yn.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/7PHN2E4/QLC246ED-large.jpg</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Wax  Tissu pagne africain  en coupon 45 cm x 116 cm</t>
+          <t>Tissus Wax , Coupon Pagne addis abeba jaune et rose</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>5,35 €</t>
+          <t>15,94 $</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons. Couleurs dominantes: ,bleu,jaune,marron
-            En savoir plus sur cet article</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>lagracewax</t>
+          <t>joli pagne africain addis abeba dans les tons jaune et rose. Ce pagne est magnifique, vous ne serez pas déçus.
+impression recto-verso
+Plusieurs coloris et motifs disponibles dans la boutique
+laize : 1,17 mètres 
+composition : coton 
+Entretien : Nous recommandons fortement le lavage à la main dans une eau pas trop chaude et un savon doux comme le savon de Marseille pour préserver le tissu.
+Mais si vous optez le lavage en machine , ne pas excéder les  30°
+Séchage au sèche linge à proscrire
+vendu par unités de 0,50 mètre 
+pour 1 mètre, prendre la quantité 2 
+pour 1,50 mètres, quantité 3 
+pour 2 mètres, quantité 4... 
+(coupé en un seul morceau)
+LES TISSUS SONT VENDUS A LA COUPE, ils ne sont ni repris ni échangés, merci de votre compréhension.</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/9e1704/1546526169/il_fullxfull.1546526169_d85v.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/7PHN2E4/QS4FN3CR-large.jpg</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Wax  Tissu pagne africain  en coupon 45 cm x 116 cm</t>
+          <t>Tissus Wax , Coupon Pagne addis abeba jaune et rose</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>5,35 €</t>
+          <t>15,94 $</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons. Couleurs dominantes: ,bleu,jaune,marron
-            En savoir plus sur cet article</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>lagracewax</t>
+          <t>joli pagne africain addis abeba dans les tons jaune et rose. Ce pagne est magnifique, vous ne serez pas déçus.
+impression recto-verso
+Plusieurs coloris et motifs disponibles dans la boutique
+laize : 1,17 mètres 
+composition : coton 
+Entretien : Nous recommandons fortement le lavage à la main dans une eau pas trop chaude et un savon doux comme le savon de Marseille pour préserver le tissu.
+Mais si vous optez le lavage en machine , ne pas excéder les  30°
+Séchage au sèche linge à proscrire
+vendu par unités de 0,50 mètre 
+pour 1 mètre, prendre la quantité 2 
+pour 1,50 mètres, quantité 3 
+pour 2 mètres, quantité 4... 
+(coupé en un seul morceau)
+LES TISSUS SONT VENDUS A LA COUPE, ils ne sont ni repris ni échangés, merci de votre compréhension.</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/362064/1499056752/il_fullxfull.1499056752_18sp.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/7PHN2E4/A7IXKF6W-large.jpg</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Wax  Tissu pagne africain  en coupon 45 cm x 116 cm</t>
+          <t>Tissus Wax , Coupon Pagne addis abeba jaune et rose</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>5,35 €</t>
+          <t>15,94 $</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons. Couleurs dominantes: ,bleu,jaune,marron
-            En savoir plus sur cet article</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>lagracewax</t>
+          <t>joli pagne africain addis abeba dans les tons jaune et rose. Ce pagne est magnifique, vous ne serez pas déçus.
+impression recto-verso
+Plusieurs coloris et motifs disponibles dans la boutique
+laize : 1,17 mètres 
+composition : coton 
+Entretien : Nous recommandons fortement le lavage à la main dans une eau pas trop chaude et un savon doux comme le savon de Marseille pour préserver le tissu.
+Mais si vous optez le lavage en machine , ne pas excéder les  30°
+Séchage au sèche linge à proscrire
+vendu par unités de 0,50 mètre 
+pour 1 mètre, prendre la quantité 2 
+pour 1,50 mètres, quantité 3 
+pour 2 mètres, quantité 4... 
+(coupé en un seul morceau)
+LES TISSUS SONT VENDUS A LA COUPE, ils ne sont ni repris ni échangés, merci de votre compréhension.</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/b4ed36/1546527355/il_fullxfull.1546527355_grw2.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/7PHN2E4/YVUWQIRZ-large.jpg</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Wax  Tissu pagne africain  en coupon 45 cm x 116 cm</t>
+          <t>Tissus Wax , Coupon Pagne addis abeba jaune et rose</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>5,35 €</t>
+          <t>15,94 $</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons. Couleurs dominantes: ,bleu,jaune,marron
-            En savoir plus sur cet article</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>lagracewax</t>
+          <t>joli pagne africain addis abeba dans les tons jaune et rose. Ce pagne est magnifique, vous ne serez pas déçus.
+impression recto-verso
+Plusieurs coloris et motifs disponibles dans la boutique
+laize : 1,17 mètres 
+composition : coton 
+Entretien : Nous recommandons fortement le lavage à la main dans une eau pas trop chaude et un savon doux comme le savon de Marseille pour préserver le tissu.
+Mais si vous optez le lavage en machine , ne pas excéder les  30°
+Séchage au sèche linge à proscrire
+vendu par unités de 0,50 mètre 
+pour 1 mètre, prendre la quantité 2 
+pour 1,50 mètres, quantité 3 
+pour 2 mètres, quantité 4... 
+(coupé en un seul morceau)
+LES TISSUS SONT VENDUS A LA COUPE, ils ne sont ni repris ni échangés, merci de votre compréhension.</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/5db6f5/2063855573/il_fullxfull.2063855573_8s5t.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/7PHN2E4/7I683RZJ-large.jpg</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>wax</t>
+          <t>Tissus Wax , Coupon Pagne addis abeba jaune et rose</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>5,62 €+</t>
+          <t>15,94 $</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons. Coloris: bleu et orange
-            En savoir plus sur cet article</t>
+          <t>joli pagne africain addis abeba dans les tons jaune et rose. Ce pagne est magnifique, vous ne serez pas déçus.
+impression recto-verso
+Plusieurs coloris et motifs disponibles dans la boutique
+laize : 1,17 mètres 
+composition : coton 
+Entretien : Nous recommandons fortement le lavage à la main dans une eau pas trop chaude et un savon doux comme le savon de Marseille pour préserver le tissu.
+Mais si vous optez le lavage en machine , ne pas excéder les  30°
+Séchage au sèche linge à proscrire
+vendu par unités de 0,50 mètre 
+pour 1 mètre, prendre la quantité 2 
+pour 1,50 mètres, quantité 3 
+pour 2 mètres, quantité 4... 
+(coupé en un seul morceau)
+LES TISSUS SONT VENDUS A LA COUPE, ils ne sont ni repris ni échangés, merci de votre compréhension.</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/5fcff8/2081217695/il_fullxfull.2081217695_8f90.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/XL1I81N/RTZKR7FZ-large.jpg</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>wax</t>
+          <t>Tissus Wax , Wax Pagne Tissu Africain collection HITARGET 6 Yards ciré imprimé pur COTON</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>5,62 €+</t>
+          <t>48,38 $</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>NA likes</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons. Coloris: bleu et orange
-            En savoir plus sur cet article</t>
+          <t>Véritable tissu WAX collection ORIGINAL HITARGET  matière 100% pur COTON 
+- Motifs vifs et éclatants car imprimés avec une cire haut de gamme 
+- Couleurs avec une tenue exceptionnelle 
+- Longueur : 6 yards = 5,48 mètres et Largeur : 1,20 mètres 
+- Utilisations : Pour vos boubous traditionnels, vêtements, patchwork, nappes, décoration et tous autres types de confection
+PRODUIT NEUF ET AUTHENTIQUE
+ENVOI RAPIDE SOUS 24 HEURES
+VENDEUR PROFESSIONEL
+BON ACHAT A TOUS
+QUANTITE LIMITÉE</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/4104e1/2137401191/il_fullxfull.2137401191_ogaz.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/XL1I81N/4ZT4M13Z-large.jpg</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>wax</t>
+          <t>Tissus Wax , Wax Pagne Tissu Africain collection HITARGET 6 Yards ciré imprimé pur COTON</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>5,62 €+</t>
+          <t>48,38 $</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>NA likes</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons. Coloris: bleu et orange
-            En savoir plus sur cet article</t>
+          <t>Véritable tissu WAX collection ORIGINAL HITARGET  matière 100% pur COTON 
+- Motifs vifs et éclatants car imprimés avec une cire haut de gamme 
+- Couleurs avec une tenue exceptionnelle 
+- Longueur : 6 yards = 5,48 mètres et Largeur : 1,20 mètres 
+- Utilisations : Pour vos boubous traditionnels, vêtements, patchwork, nappes, décoration et tous autres types de confection
+PRODUIT NEUF ET AUTHENTIQUE
+ENVOI RAPIDE SOUS 24 HEURES
+VENDEUR PROFESSIONEL
+BON ACHAT A TOUS
+QUANTITE LIMITÉE</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/ffbd45/2063853599/il_fullxfull.2063853599_1m9k.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/ASSI4B4/5WUS9J81-large.jpg</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>wax</t>
+          <t>Tissus Wax , Wax pagne tissu africain collection EXCLUSIVE ORIGINAL HITARGET 6 YARDS cire imprimé 100% pur COTON</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>5,62 €+</t>
+          <t>50,94 $</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>NA likes</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons. Coloris: bleu et orange
-            En savoir plus sur cet article</t>
+          <t>éritable tissu WAX collection ORIGINAL HITARGET matière 100% pur COTON - Motifs vifs et éclatants car imprimés avec une cire haut de gamme - Couleurs avec une tenue exceptionnelle et ultrarésistantes au lavage - Longueur : 6 yards = 5,48 mètres et Largeur : 1,20 mètres - Utilisations : Pour vos boubous traditionnels, vêtements, patchwork, nappes, décoration et tous autres types de confection
+PRODUIT NEUF ET AUTHENTIQUE
+ENVOI RAPIDE SOUS 24 HEURES
+VENDEUR PROFESSIONEL
+BON ACHAT A TOUS
+QUANTITE LIMITÉE</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/c74baa/2063858871/il_fullxfull.2063858871_361p.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/ASSI4B4/D7L7LM7W-large.jpg</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>wax</t>
+          <t>Tissus Wax , Wax pagne tissu africain collection EXCLUSIVE ORIGINAL HITARGET 6 YARDS cire imprimé 100% pur COTON</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>5,62 €+</t>
+          <t>50,94 $</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>NA likes</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons. Coloris: bleu et orange
-            En savoir plus sur cet article</t>
+          <t>éritable tissu WAX collection ORIGINAL HITARGET matière 100% pur COTON - Motifs vifs et éclatants car imprimés avec une cire haut de gamme - Couleurs avec une tenue exceptionnelle et ultrarésistantes au lavage - Longueur : 6 yards = 5,48 mètres et Largeur : 1,20 mètres - Utilisations : Pour vos boubous traditionnels, vêtements, patchwork, nappes, décoration et tous autres types de confection
+PRODUIT NEUF ET AUTHENTIQUE
+ENVOI RAPIDE SOUS 24 HEURES
+VENDEUR PROFESSIONEL
+BON ACHAT A TOUS
+QUANTITE LIMITÉE</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/858655/2016268330/il_fullxfull.2016268330_7uof.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/2ZMKPKW/JFKH2SA6-large.jpg</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>wax</t>
+          <t>Tissus Wax , Pagne wax bords rouge</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>5,62 €+</t>
+          <t>11,55 $</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons. Coloris: bleu et orange
-            En savoir plus sur cet article</t>
+          <t>Pagne wax fleurs bordure rouge
+impression recto-verso
+vendu par unités de 0.5 mètre
+pour 1 mètre, prendre la quantité 2
+pour 1,50 mètres, quantité 3
+pour 2 mètres, quantité 4...
+(coupé en un seul morceau)
+Info livraison : Remise en mains propres possible sur Paris
+Plusieurs coloris et motifs disponibles dans la boutique 
+laize : 1,17 mètres
+composition : coton
+Entretien : Nous recommandons fortement le lavage à la main dans une eau pas trop chaude et un savon doux comme le savon de Marseille pour préserver le tissu.
+Mais si vous optez le lavage en machine , ne pas excéder les  30°
+Séchage au sèche linge à proscrire
+LES TISSUS SONT VENDUS A LA COUPE, ils ne sont ni repris ni échangés, merci de votre compréhension.</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/1b3203/2081218037/il_fullxfull.2081218037_284m.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/2ZMKPKW/V4L59FAI-large.jpg</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>wax</t>
+          <t>Tissus Wax , Pagne wax bords rouge</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>5,62 €+</t>
+          <t>11,55 $</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons. Coloris: bleu et orange
-            En savoir plus sur cet article</t>
+          <t>Pagne wax fleurs bordure rouge
+impression recto-verso
+vendu par unités de 0.5 mètre
+pour 1 mètre, prendre la quantité 2
+pour 1,50 mètres, quantité 3
+pour 2 mètres, quantité 4...
+(coupé en un seul morceau)
+Info livraison : Remise en mains propres possible sur Paris
+Plusieurs coloris et motifs disponibles dans la boutique 
+laize : 1,17 mètres
+composition : coton
+Entretien : Nous recommandons fortement le lavage à la main dans une eau pas trop chaude et un savon doux comme le savon de Marseille pour préserver le tissu.
+Mais si vous optez le lavage en machine , ne pas excéder les  30°
+Séchage au sèche linge à proscrire
+LES TISSUS SONT VENDUS A LA COUPE, ils ne sont ni repris ni échangés, merci de votre compréhension.</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/eee385/2081218265/il_fullxfull.2081218265_3qnp.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/2ZMKPKW/5IVFVIJQ-large.jpg</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>wax</t>
+          <t>Tissus Wax , Pagne wax bords rouge</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>5,62 €+</t>
+          <t>11,55 $</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons. Coloris: bleu et orange
-            En savoir plus sur cet article</t>
+          <t>Pagne wax fleurs bordure rouge
+impression recto-verso
+vendu par unités de 0.5 mètre
+pour 1 mètre, prendre la quantité 2
+pour 1,50 mètres, quantité 3
+pour 2 mètres, quantité 4...
+(coupé en un seul morceau)
+Info livraison : Remise en mains propres possible sur Paris
+Plusieurs coloris et motifs disponibles dans la boutique 
+laize : 1,17 mètres
+composition : coton
+Entretien : Nous recommandons fortement le lavage à la main dans une eau pas trop chaude et un savon doux comme le savon de Marseille pour préserver le tissu.
+Mais si vous optez le lavage en machine , ne pas excéder les  30°
+Séchage au sèche linge à proscrire
+LES TISSUS SONT VENDUS A LA COUPE, ils ne sont ni repris ni échangés, merci de votre compréhension.</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/013df2/2081218337/il_fullxfull.2081218337_edjv.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/2ZMKPKW/SWXCKVTQ-large.jpg</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>wax</t>
+          <t>Tissus Wax , Pagne wax bords rouge</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>5,62 €+</t>
+          <t>11,55 $</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons. Coloris: bleu et orange
-            En savoir plus sur cet article</t>
+          <t>Pagne wax fleurs bordure rouge
+impression recto-verso
+vendu par unités de 0.5 mètre
+pour 1 mètre, prendre la quantité 2
+pour 1,50 mètres, quantité 3
+pour 2 mètres, quantité 4...
+(coupé en un seul morceau)
+Info livraison : Remise en mains propres possible sur Paris
+Plusieurs coloris et motifs disponibles dans la boutique 
+laize : 1,17 mètres
+composition : coton
+Entretien : Nous recommandons fortement le lavage à la main dans une eau pas trop chaude et un savon doux comme le savon de Marseille pour préserver le tissu.
+Mais si vous optez le lavage en machine , ne pas excéder les  30°
+Séchage au sèche linge à proscrire
+LES TISSUS SONT VENDUS A LA COUPE, ils ne sont ni repris ni échangés, merci de votre compréhension.</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/b925e2/2089836758/il_fullxfull.2089836758_pxv9.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/2ZMKPKW/AH2K3VEA-large.jpg</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>wax</t>
+          <t>Tissus Wax , Pagne wax bords rouge</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>5,62 €+</t>
+          <t>11,55 $</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons. Coloris: bleu et orange
-            En savoir plus sur cet article</t>
+          <t>Pagne wax fleurs bordure rouge
+impression recto-verso
+vendu par unités de 0.5 mètre
+pour 1 mètre, prendre la quantité 2
+pour 1,50 mètres, quantité 3
+pour 2 mètres, quantité 4...
+(coupé en un seul morceau)
+Info livraison : Remise en mains propres possible sur Paris
+Plusieurs coloris et motifs disponibles dans la boutique 
+laize : 1,17 mètres
+composition : coton
+Entretien : Nous recommandons fortement le lavage à la main dans une eau pas trop chaude et un savon doux comme le savon de Marseille pour préserver le tissu.
+Mais si vous optez le lavage en machine , ne pas excéder les  30°
+Séchage au sèche linge à proscrire
+LES TISSUS SONT VENDUS A LA COUPE, ils ne sont ni repris ni échangés, merci de votre compréhension.</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/0c5760/1946223397/il_fullxfull.1946223397_9jtv.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/CZHZS6Q/VKBFHMAN-large.jpg</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>coupon tissu  wax 45 cm x 116 cm</t>
+          <t>Tissus Wax , Wax, Tissu wax, fleurs de mariage, lys, hibiscus, Pagne africain (100% Coton), orange, vert</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>5,62 €</t>
+          <t>6,59 $</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>87 likes</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons
-            En savoir plus sur cet article</t>
+          <t>Tissu vendu par 50 cm. La largeur fait toujours 120 cm pour n'importe quelle quantité (cela ne changera pas).
+Un tissu entier fait 5,50 mètres (6 yards) de longueur et 1,20 mètre de largeur.
+Exemple : si vous souhaitez commander 6 yards (5,50 mètres), il faut ajouter dans le panier 11 fois le produit que vous souhaitez commander.
+Calcul : 50 cm x 11 = 5,50 mètres
+VOUS AVEZ DES QUESTIONS ?
+Contactez nous sur AFRIKREA ou par mail : contact@modewax.fr
+Wax, Tissu wax, fleurs de mariage, lys, hibiscus, Pagne africain (100% Coton), orange, vert
+Tissu fleurs de mariage - Tissu wax fleurs de mariage
+fleurs de lys - tissu pagne fleurs de lys - tissus
+Tissu Wax - Tissu Pagne - Tissu Africain - WAX - tissus - tissu - vert - violet - bleu turquoise - vert - violet - jaune
+ rose - beige - blanc - rouge - jaune or
+Tissu WAX, Pagne, Africain, fleurs de mariage, lys - rose - beige - blanc - rouge - jaune
+wax fleurs de mariage, wax fleurs de lys - wax tissu - rose - beige - blanc - rouge - jaune
+Longueur : 5,48 mètres (6 yards)
+Largeur : 1,18 mètre</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/6701e0/1307394736/il_fullxfull.1307394736_jjrs.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/7JR49X5/P1KZ53E8-large.jpg</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>coupon tissu  wax 45 cm x 116 cm</t>
+          <t>Tissus Bogolan , Coupon tissu  imprimé bogolan A</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>5,62 €</t>
+          <t>15,40 $
+                14,74 $</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons
-            En savoir plus sur cet article</t>
+          <t>joli pagne type wax avec l’imprimé bogolan
+Livraison a partir du 6 novembre 
+Plusieurs coloris et motifs disponibles dans la boutique
+laize : 1,16 mètres
+composition : coton
+Entretien : Nous recommandons fortement le lavage à la main, séparément, dans une eau pas trop chaude pour préserver le tissu.
+Mais si vous optez le lavage en machine , ne pas excéder les  30°
+vendu par unités de 0,50 mètre
+pour 1 mètre, prendre la quantité 2
+pour 1,50 mètres, quantité 3
+pour 2 mètres, quantité 4... 
+(coupé en un seul morceau)
+LES TISSUS SONT VENDUS A LA COUPE, ils ne sont ni repris ni échangés, merci de votre compréhension.</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/641158/1946214685/il_fullxfull.1946214685_sjb8.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/7JR49X5/458KC72V-large.jpg</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>coupon tissu  wax 45 cm x 116 cm</t>
+          <t>Tissus Bogolan , Coupon tissu  imprimé bogolan A</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>5,62 €</t>
+          <t>15,40 $
+                14,74 $</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons
-            En savoir plus sur cet article</t>
+          <t>joli pagne type wax avec l’imprimé bogolan
+Livraison a partir du 6 novembre 
+Plusieurs coloris et motifs disponibles dans la boutique
+laize : 1,16 mètres
+composition : coton
+Entretien : Nous recommandons fortement le lavage à la main, séparément, dans une eau pas trop chaude pour préserver le tissu.
+Mais si vous optez le lavage en machine , ne pas excéder les  30°
+vendu par unités de 0,50 mètre
+pour 1 mètre, prendre la quantité 2
+pour 1,50 mètres, quantité 3
+pour 2 mètres, quantité 4... 
+(coupé en un seul morceau)
+LES TISSUS SONT VENDUS A LA COUPE, ils ne sont ni repris ni échangés, merci de votre compréhension.</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/0a4aaf/1354650949/il_fullxfull.1354650949_3ol1.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/7JR49X5/9P9TQ9J5-large.jpg</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>coupon tissu  wax 45 cm x 116 cm</t>
+          <t>Tissus Bogolan , Coupon tissu  imprimé bogolan A</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>5,62 €</t>
+          <t>15,40 $
+                14,74 $</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons
-            En savoir plus sur cet article</t>
+          <t>joli pagne type wax avec l’imprimé bogolan
+Livraison a partir du 6 novembre 
+Plusieurs coloris et motifs disponibles dans la boutique
+laize : 1,16 mètres
+composition : coton
+Entretien : Nous recommandons fortement le lavage à la main, séparément, dans une eau pas trop chaude pour préserver le tissu.
+Mais si vous optez le lavage en machine , ne pas excéder les  30°
+vendu par unités de 0,50 mètre
+pour 1 mètre, prendre la quantité 2
+pour 1,50 mètres, quantité 3
+pour 2 mètres, quantité 4... 
+(coupé en un seul morceau)
+LES TISSUS SONT VENDUS A LA COUPE, ils ne sont ni repris ni échangés, merci de votre compréhension.</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/7bec92/1946216003/il_fullxfull.1946216003_j2oz.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/7JR49X5/V9Q897SR-large.jpg</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>coupon tissu  wax 45 cm x 116 cm</t>
+          <t>Tissus Bogolan , Coupon tissu  imprimé bogolan A</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>5,62 €</t>
+          <t>15,40 $
+                14,74 $</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons
-            En savoir plus sur cet article</t>
+          <t>joli pagne type wax avec l’imprimé bogolan
+Livraison a partir du 6 novembre 
+Plusieurs coloris et motifs disponibles dans la boutique
+laize : 1,16 mètres
+composition : coton
+Entretien : Nous recommandons fortement le lavage à la main, séparément, dans une eau pas trop chaude pour préserver le tissu.
+Mais si vous optez le lavage en machine , ne pas excéder les  30°
+vendu par unités de 0,50 mètre
+pour 1 mètre, prendre la quantité 2
+pour 1,50 mètres, quantité 3
+pour 2 mètres, quantité 4... 
+(coupé en un seul morceau)
+LES TISSUS SONT VENDUS A LA COUPE, ils ne sont ni repris ni échangés, merci de votre compréhension.</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/beb1a5/1946216863/il_fullxfull.1946216863_p7ip.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/3AJPA3C/DBPVR33A-large.jpg</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>coupon tissu  wax 45 cm x 116 cm</t>
+          <t>Tissus Wax , Pagne wax bleu et rouge à la coupe min 0,5m</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>5,62 €</t>
+          <t>13,75 $</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons
-            En savoir plus sur cet article</t>
+          <t>joli tissu wax africain très coloré dans les tons bleu et rouge
+impression recto-verso
+vendu par unités de 0,50 mètre
+pour 1 mètre, prendre la quantité 2
+pour 1,50 mètres, quantité 3
+pour 2 mètres, quantité 4... 
+(coupé en un seul morceau)
+Info livraison : Remise en mains propres possible sur Paris
+Plusieurs coloris et motifs disponibles dans la boutique
+Laize : 1,17 mètres
+composition : coton
+Entretien : Nous recommandons fortement le lavage à la main dans une eau pas trop chaude et un savon doux comme le savon de Marseille pour préserver le tissu.
+Mais si vous optez le lavage en machine , ne pas excéder les  30°
+Séchage au sèche linge à proscrire
+vendu par unités de 0,50 mètre
+pour 1 mètre, prendre la quantité 2
+pour 1,50 mètres, quantité 3
+pour 2 mètres, quantité 4... 
+(coupé en un seul morceau)
+LES TISSUS SONT VENDUS A LA COUPE, ils ne sont ni repris ni échangés, merci de votre compréhension.</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/395faa/1946216889/il_fullxfull.1946216889_gk0a.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/3AJPA3C/6IJ2R8RD-large.jpg</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>coupon tissu  wax 45 cm x 116 cm</t>
+          <t>Tissus Wax , Pagne wax bleu et rouge à la coupe min 0,5m</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>5,62 €</t>
+          <t>13,75 $</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons
-            En savoir plus sur cet article</t>
+          <t>joli tissu wax africain très coloré dans les tons bleu et rouge
+impression recto-verso
+vendu par unités de 0,50 mètre
+pour 1 mètre, prendre la quantité 2
+pour 1,50 mètres, quantité 3
+pour 2 mètres, quantité 4... 
+(coupé en un seul morceau)
+Info livraison : Remise en mains propres possible sur Paris
+Plusieurs coloris et motifs disponibles dans la boutique
+Laize : 1,17 mètres
+composition : coton
+Entretien : Nous recommandons fortement le lavage à la main dans une eau pas trop chaude et un savon doux comme le savon de Marseille pour préserver le tissu.
+Mais si vous optez le lavage en machine , ne pas excéder les  30°
+Séchage au sèche linge à proscrire
+vendu par unités de 0,50 mètre
+pour 1 mètre, prendre la quantité 2
+pour 1,50 mètres, quantité 3
+pour 2 mètres, quantité 4... 
+(coupé en un seul morceau)
+LES TISSUS SONT VENDUS A LA COUPE, ils ne sont ni repris ni échangés, merci de votre compréhension.</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/b7aea9/1946216531/il_fullxfull.1946216531_65cd.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/3AJPA3C/89BXIB9B-large.jpg</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>coupon tissu  wax 45 cm x 116 cm</t>
+          <t>Tissus Wax , Pagne wax bleu et rouge à la coupe min 0,5m</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>5,62 €</t>
+          <t>13,75 $</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons
-            En savoir plus sur cet article</t>
+          <t>joli tissu wax africain très coloré dans les tons bleu et rouge
+impression recto-verso
+vendu par unités de 0,50 mètre
+pour 1 mètre, prendre la quantité 2
+pour 1,50 mètres, quantité 3
+pour 2 mètres, quantité 4... 
+(coupé en un seul morceau)
+Info livraison : Remise en mains propres possible sur Paris
+Plusieurs coloris et motifs disponibles dans la boutique
+Laize : 1,17 mètres
+composition : coton
+Entretien : Nous recommandons fortement le lavage à la main dans une eau pas trop chaude et un savon doux comme le savon de Marseille pour préserver le tissu.
+Mais si vous optez le lavage en machine , ne pas excéder les  30°
+Séchage au sèche linge à proscrire
+vendu par unités de 0,50 mètre
+pour 1 mètre, prendre la quantité 2
+pour 1,50 mètres, quantité 3
+pour 2 mètres, quantité 4... 
+(coupé en un seul morceau)
+LES TISSUS SONT VENDUS A LA COUPE, ils ne sont ni repris ni échangés, merci de votre compréhension.</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/4266d8/1284974565/il_fullxfull.1284974565_f7td.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/3AJPA3C/V1CU6KRM-large.jpg</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>wax</t>
+          <t>Tissus Wax , Pagne wax bleu et rouge à la coupe min 0,5m</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>10,80 €</t>
+          <t>13,75 $</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Longueur: 90 Centimètres; Largeur: 116 Centimètres</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Fibre principale: Coton</t>
+          <t>joli tissu wax africain très coloré dans les tons bleu et rouge
+impression recto-verso
+vendu par unités de 0,50 mètre
+pour 1 mètre, prendre la quantité 2
+pour 1,50 mètres, quantité 3
+pour 2 mètres, quantité 4... 
+(coupé en un seul morceau)
+Info livraison : Remise en mains propres possible sur Paris
+Plusieurs coloris et motifs disponibles dans la boutique
+Laize : 1,17 mètres
+composition : coton
+Entretien : Nous recommandons fortement le lavage à la main dans une eau pas trop chaude et un savon doux comme le savon de Marseille pour préserver le tissu.
+Mais si vous optez le lavage en machine , ne pas excéder les  30°
+Séchage au sèche linge à proscrire
+vendu par unités de 0,50 mètre
+pour 1 mètre, prendre la quantité 2
+pour 1,50 mètres, quantité 3
+pour 2 mètres, quantité 4... 
+(coupé en un seul morceau)
+LES TISSUS SONT VENDUS A LA COUPE, ils ne sont ni repris ni échangés, merci de votre compréhension.</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/a294ef/1237741132/il_fullxfull.1237741132_7ea6.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/FDSFH1S/MBVMLHSU-large.jpg</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>wax</t>
+          <t>Tissus Wax , COUPON TISSU WAX AFRICAIN MOTIF: PAPILLON</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>10,80 €</t>
+          <t>4,95 $</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>55 likes</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Longueur: 90 Centimètres; Largeur: 116 Centimètres</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Fibre principale: Coton</t>
+          <t>Tissu wax mélangé : polyester et coton. Avec une impression de très belle qualités et des couleurs vives, un deseign unique et dynamique.
+Ce tissu est parfait pour la confection de vos robes, costumes,tops, de vos loisirs créatifs et la décoration
+Sortez des sentiers battus et réalisez des vetements et accesoires pour toute la famille.
+Le tissu wax vous offre 1001 possibilités
+vendu par unite de 45 cm
+1 unite = 45 cm = 1/2 yard
+2 unite = 90 cm = 1 yard
+3 unite = 135 cm = 1,5 yard
+4 unite = 180 cm = 2 yard......
+La largeur fait 1m 15
+(coupé en un seul morceau)
+Entretien : Nous recommandons fortement le lavage à la main dans une eau pas trop chaude pour préserver le tissu. 
+Mais si vous optez le lavage en machine , ne pas excéder les 30°
+LIVRAISON GRATUIT ET POSSIBLE A PARTIR DE 30 EUROS D'ACHATS EN EUROPE, ETATS UNIS ET L'INTERNATIONAL</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/09095c/1284974461/il_fullxfull.1284974461_sw33.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/FDSFH1S/2FJCRJMM-large.jpg</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>wax</t>
+          <t>Tissus Wax , COUPON TISSU WAX AFRICAIN MOTIF: PAPILLON</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>10,80 €</t>
+          <t>4,95 $</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>55 likes</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Longueur: 90 Centimètres; Largeur: 116 Centimètres</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Fibre principale: Coton</t>
+          <t>Tissu wax mélangé : polyester et coton. Avec une impression de très belle qualités et des couleurs vives, un deseign unique et dynamique.
+Ce tissu est parfait pour la confection de vos robes, costumes,tops, de vos loisirs créatifs et la décoration
+Sortez des sentiers battus et réalisez des vetements et accesoires pour toute la famille.
+Le tissu wax vous offre 1001 possibilités
+vendu par unite de 45 cm
+1 unite = 45 cm = 1/2 yard
+2 unite = 90 cm = 1 yard
+3 unite = 135 cm = 1,5 yard
+4 unite = 180 cm = 2 yard......
+La largeur fait 1m 15
+(coupé en un seul morceau)
+Entretien : Nous recommandons fortement le lavage à la main dans une eau pas trop chaude pour préserver le tissu. 
+Mais si vous optez le lavage en machine , ne pas excéder les 30°
+LIVRAISON GRATUIT ET POSSIBLE A PARTIR DE 30 EUROS D'ACHATS EN EUROPE, ETATS UNIS ET L'INTERNATIONAL</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/f34413/1237741036/il_fullxfull.1237741036_c74a.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/XBILID9/MHS2HPDW-large.jpg</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>wax</t>
+          <t>Tissus Wax , Tissu WAX, Pagne, Africain, fleurs de mariage, lys - rose - beige - vert - violet - rouge</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>10,80 €</t>
+          <t>4,39 $</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>87 likes</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Longueur: 90 Centimètres; Largeur: 116 Centimètres</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Fibre principale: Coton</t>
+          <t>Tissu vendu par 50 cm. La largeur fait toujours 120 cm pour n'importe quelle quantité (cela ne changera pas).
+Un tissu entier fait 5,50 mètres (6 yards) de longueur et 1,20 mètre de largeur.
+Exemple : si vous souhaitez commander 6 yards (5,50 mètres), il faut ajouter dans le panier 11 fois le produit que vous souhaitez commander.
+Calcul : 50 cm x 11 = 5,50 mètres
+VOUS AVEZ DES QUESTIONS ?
+Contactez nous sur AFRIKREA ou par mail : contact@modewax.fr
+Tissu Wax - Tissu Pagne - Tissu Africain - WAX
+Tissu fleurs de mariage - Tissu wax fleurs de mariage
+fleurs de lys - tissu pagne fleurs de lys - tissus
+Tissu Wax - Tissu Pagne - Tissu Africain - WAX - tissus - tissu - vert - violet - bleu turquoise - vert - violet - jaune
+ rose - beige - blanc - rouge - jaune or
+Tissu WAX, Pagne, Africain, fleurs de mariage, lys - rose - beige - blanc - rouge - jaune
+rose - beige - multicolor - rouge - jaune
+rose - beige - vert - violet - rouge</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/5c5b8f/1464434853/il_fullxfull.1464434853_5l82.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/MTD344B/2NCEWYFB-large.jpg</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Wax  Tissu pagne africain en coupon 45 cm x 115 cm</t>
+          <t>Tissus Wax , Tissu wax fleurs de mariage jaune bleu 50*116cm</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>5,35 €</t>
+          <t>12,10 $</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons. Couleurs dominantes: jaune rouge
-            En savoir plus sur cet article</t>
+          <t>Joli tissu style wax africain fleur de mariage
+impression recto-verso
+vendu par unités de 0.5 mètre
+pour 1 mètre, prendre la quantité 2
+pour 1,50 mètres, quantité 3
+pour 2 mètres, quantité 4...
+(coupé en un seul morceau)
+Plusieurs coloris et motifs disponibles dans la boutique 
+laize : 1,17 mètres
+composition : coton, polyester 
+Entretien : Nous recommandons fortement le lavage à la main dans une eau pas trop chaude et un savon doux comme le savon de Marseille pour préserver le tissu.
+Mais si vous optez le lavage en machine , ne pas excéder les  30°
+Séchage au sèche linge à proscrire
+LES TISSUS SONT VENDUS A LA COUPE, ils ne sont ni repris ni échangés, merci de votre compréhension.</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/959226/1417168392/il_fullxfull.1417168392_47u4.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/MTD344B/8VQA1KAU-large.jpg</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Wax  Tissu pagne africain en coupon 45 cm x 115 cm</t>
+          <t>Tissus Wax , Tissu wax fleurs de mariage jaune bleu 50*116cm</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>5,35 €</t>
+          <t>12,10 $</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons. Couleurs dominantes: jaune rouge
-            En savoir plus sur cet article</t>
+          <t>Joli tissu style wax africain fleur de mariage
+impression recto-verso
+vendu par unités de 0.5 mètre
+pour 1 mètre, prendre la quantité 2
+pour 1,50 mètres, quantité 3
+pour 2 mètres, quantité 4...
+(coupé en un seul morceau)
+Plusieurs coloris et motifs disponibles dans la boutique 
+laize : 1,17 mètres
+composition : coton, polyester 
+Entretien : Nous recommandons fortement le lavage à la main dans une eau pas trop chaude et un savon doux comme le savon de Marseille pour préserver le tissu.
+Mais si vous optez le lavage en machine , ne pas excéder les  30°
+Séchage au sèche linge à proscrire
+LES TISSUS SONT VENDUS A LA COUPE, ils ne sont ni repris ni échangés, merci de votre compréhension.</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/2a6806/1417168478/il_fullxfull.1417168478_nbj2.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/MTD344B/SUUHX9JR-large.jpg</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Wax  Tissu pagne africain en coupon 45 cm x 115 cm</t>
+          <t>Tissus Wax , Tissu wax fleurs de mariage jaune bleu 50*116cm</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>5,35 €</t>
+          <t>12,10 $</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons. Couleurs dominantes: jaune rouge
-            En savoir plus sur cet article</t>
+          <t>Joli tissu style wax africain fleur de mariage
+impression recto-verso
+vendu par unités de 0.5 mètre
+pour 1 mètre, prendre la quantité 2
+pour 1,50 mètres, quantité 3
+pour 2 mètres, quantité 4...
+(coupé en un seul morceau)
+Plusieurs coloris et motifs disponibles dans la boutique 
+laize : 1,17 mètres
+composition : coton, polyester 
+Entretien : Nous recommandons fortement le lavage à la main dans une eau pas trop chaude et un savon doux comme le savon de Marseille pour préserver le tissu.
+Mais si vous optez le lavage en machine , ne pas excéder les  30°
+Séchage au sèche linge à proscrire
+LES TISSUS SONT VENDUS A LA COUPE, ils ne sont ni repris ni échangés, merci de votre compréhension.</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/e82b4c/1265395978/il_fullxfull.1265395978_17sy.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/NXT6TPJ/LABDH7P7-large.jpg</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>tissu wax coupon tissu africain wax</t>
+          <t>Tissus Wax , Tissus wax africain wax fabric coton oiseaux bird animals</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>5,62 €+</t>
+          <t>20,01 $</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>94 likes</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons. Coloris: jaune, bleu
-            En savoir plus sur cet article</t>
+          <t>Le tissu Wax, aussi appelé tissu africain est une explosion de couleurs et de bonne humeur. Ces toiles en coton imprimées sont un symbole de la culture africaine. Ils nous font voyager au rythme des djembés et des danses entrainantes ! Ce tissu est aussi adapté pour l’habillement que pour l’ameublement.
+tissus wax animals bird oiseaux
+Tissus vendu par unité de 50 cm
+1 unité= 50cm
+2 unité= 1m
+3 unité= 1m50
+4 unité = 2m
+Tissus wax 100% coton 
+la largeur fait 1m15</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/0e50d7/1312629923/il_fullxfull.1312629923_hyzi.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/86Y2I4Y/6QAM8MX5-large.jpg</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>tissu wax coupon tissu africain wax</t>
+          <t>Tissus Wax , Wax, Tissu wax, fleurs de mariage, lys, hibiscus, Pagne africain (100% Coton), rose, jaune, Bleu</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>5,62 €+</t>
+          <t>6,59 $</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>87 likes</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons. Coloris: jaune, bleu
-            En savoir plus sur cet article</t>
+          <t>Tissu vendu par 50 cm. La largeur fait toujours 120 cm pour n'importe quelle quantité (cela ne changera pas).
+Un tissu entier fait 5,50 mètres (6 yards) de longueur et 1,20 mètre de largeur.
+Exemple : si vous souhaitez commander 6 yards (5,50 mètres), il faut ajouter dans le panier 11 fois le produit que vous souhaitez commander.
+Calcul : 50 cm x 11 = 5,50 mètres
+VOUS AVEZ DES QUESTIONS ?
+Contactez nous sur AFRIKREA ou par mail : contact@modewax.fr
+Wax – Tissu wax – fleurs de mariage – lys – hibiscus – Pagne africain (100% Coton) – rose – jaune – Bleu
+Tissu Wax - Tissu Pagne - Tissu Africain - WAX
+Tissu fleurs de mariage - Tissu wax fleurs de mariage
+fleurs de lys - tissu pagne fleurs de lys - tissus
+Tissu Wax - Tissu Pagne - Tissu Africain - WAX - tissus - tissu - vert - violet - bleu turquoise - vert - violet - jaune
+ rose - beige - blanc - rouge - jaune or
+Tissu WAX, Pagne, Africain, fleurs de mariage, lys - rose - beige - blanc - rouge - jaune
+wax fleurs de mariage, wax fleurs de lys - wax tissu - rose - beige - blanc - rouge - jaune
+Longueur : 5,48 mètres (6 yards)
+Largeur : 1,18 mètre</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/6b7f0c/1381073465/il_fullxfull.1381073465_7qo2.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/V77JPCB/34IZ3U26-large.jpg</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Véritable coupon tissu,  wax(pagne africain) 90 cm x 116 cm</t>
+          <t>Tissus Wax , 6-061 - WAX (90*118 cm)- Avogan</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>9,00 €</t>
+          <t>18,69 $</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>28 likes</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons. Coloris: rouge,jaune,noir
-            En savoir plus sur cet article</t>
+          <t>Le tissu Wax est un tissu 100% coton.
+De très belle qualité, il est idéal pour la confection de vêtements (jupes, robes...), des articles mode ou pour la décoration (coussins, abat-jours ...)
+Je vends le tissu au yard (90cm) sur une largeur de 118 cm et je coupe la quantité désirée en un seul morceau. La longueur disponible en un seul morceau correspond au nombre de yards disponible sauf indication dans le descriptif
+Actuellement 6+5 yards
+Certain tissus Wax peuvent décolorer aux premiers lavages, il est donc préconisé de faire un premier lavage à l'eau froide avec du gros sel ou du vinaigre blanc</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/d09f8c/1381071039/il_fullxfull.1381071039_18a2.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/V77JPCB/XD9U9FRU-large.jpg</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Véritable coupon tissu,  wax(pagne africain) 90 cm x 116 cm</t>
+          <t>Tissus Wax , 6-061 - WAX (90*118 cm)- Avogan</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>9,00 €</t>
+          <t>18,69 $</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>28 likes</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons. Coloris: rouge,jaune,noir
-            En savoir plus sur cet article</t>
+          <t>Le tissu Wax est un tissu 100% coton.
+De très belle qualité, il est idéal pour la confection de vêtements (jupes, robes...), des articles mode ou pour la décoration (coussins, abat-jours ...)
+Je vends le tissu au yard (90cm) sur une largeur de 118 cm et je coupe la quantité désirée en un seul morceau. La longueur disponible en un seul morceau correspond au nombre de yards disponible sauf indication dans le descriptif
+Actuellement 6+5 yards
+Certain tissus Wax peuvent décolorer aux premiers lavages, il est donc préconisé de faire un premier lavage à l'eau froide avec du gros sel ou du vinaigre blanc</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/b04697/1715870728/il_fullxfull.1715870728_s81h.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/KD1YQAB/3U1NJ5LF-large.jpg</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>tissu  wax</t>
+          <t>Tissus Wax , Coupon pagne wax type vlisco / pagne wax</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>5,80 €</t>
+          <t>12,10 $</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.
-            En savoir plus sur cet article</t>
+          <t>joli pagne style vlisco couleur bordeaux , Avec leger brillant
+Plusieurs coloris et motifs disponibles dans la boutique
+laize : 1,16 mètres
+composition : coton
+Entretien : Nous recommandons le lavage à la main dans une eau froide pour préserver le tissu.
+repasser sur l'envers sans paillettes
+vendu par unités de 0,50 mètre
+pour 1 mètre, prendre la quantité 2
+pour 1,50 mètres, quantité 3
+pour 2 mètres, quantité 4... 
+(coupé en un seul morceau)
+LES TISSUS SONT VENDUS A LA COUPE, ils ne sont ni repris ni échangés, merci de votre compréhension.</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/e9078c/1763323757/il_fullxfull.1763323757_sqe7.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/KD1YQAB/Q3L3DRHN-large.jpg</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>tissu  wax</t>
+          <t>Tissus Wax , Coupon pagne wax type vlisco / pagne wax</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>5,80 €</t>
+          <t>12,10 $</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.
-            En savoir plus sur cet article</t>
+          <t>joli pagne style vlisco couleur bordeaux , Avec leger brillant
+Plusieurs coloris et motifs disponibles dans la boutique
+laize : 1,16 mètres
+composition : coton
+Entretien : Nous recommandons le lavage à la main dans une eau froide pour préserver le tissu.
+repasser sur l'envers sans paillettes
+vendu par unités de 0,50 mètre
+pour 1 mètre, prendre la quantité 2
+pour 1,50 mètres, quantité 3
+pour 2 mètres, quantité 4... 
+(coupé en un seul morceau)
+LES TISSUS SONT VENDUS A LA COUPE, ils ne sont ni repris ni échangés, merci de votre compréhension.</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/1bc96d/1763324911/il_fullxfull.1763324911_2xuf.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/QLUUQXX/K9AWQRRY-large.jpg</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>tissu  wax</t>
+          <t>Tissus Wax , Tissu wax, Wax, pagne, cercle, disque, hollandais, Pagne africain (100% Coton), rose, rouge, jaune</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>5,80 €</t>
+          <t>6,59 $</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>87 likes</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.
-            En savoir plus sur cet article</t>
+          <t>Tissu vendu par 50 cm. La largeur fait toujours 120 cm pour n'importe quelle quantité (cela ne changera pas).
+Un tissu entier fait 5,50 mètres (6 yards) de longueur et 1,20 mètre de largeur.
+Exemple : si vous souhaitez commander 6 yards (5,50 mètres), il faut ajouter dans le panier 11 fois le produit que vous souhaitez commander.
+Calcul : 50 cm x 11 = 5,50 mètres
+VOUS AVEZ DES QUESTIONS ?
+Contactez nous sur AFRIKREA ou par mail : contact@modewax.fr
+Tissu wax, Wax, pagne, cercle, disque, hollandais, Pagne africain (100% Coton), rose, rouge, jaune
+Tissu fleurs de mariage - Tissu wax fleurs de mariage
+fleurs de lys - tissu pagne fleurs de lys - tissus
+Wax, Tissu wax, fleurs de mariage, lys, hibiscus, Pagne africain (100% Coton), jaune, rose, blanc
+ rose - beige - blanc - rouge - jaune or
+Tissu WAX, Pagne, Africain, fleurs de mariage, lys - rose - beige - blanc - rouge - jaune
+wax fleurs de mariage, wax fleurs de lys - wax tissu - rose - beige - blanc - rouge - jaune
+Longueur : 5,48 mètres (6 yards)
+Largeur : 1,18 mètre</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/e46038/1715874166/il_fullxfull.1715874166_ln4z.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/Q2M5TM8/KL2I9MQQ-large-r6QSVB7.jpg</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>tissu  wax</t>
+          <t>Tissus Wax , Wax, Pagne Wax, Tissu Wax Africain, Tissu Ankara, Tissu Dashiki, Tissu Par Yard, tissu imprimé</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>5,80 €</t>
+          <t>12,09 $</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>23 likes</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.
-            En savoir plus sur cet article</t>
+          <t>Tissu imprimé africain 100% coton vendu par yard.
+1 Yard est à peu près égal à 92 cm.
+1 quantité choisie = 1 Yard de tissu
+2 quantités choisies = 2 Yards de tissu
+3 quantités choisies = 3 Yards de tissu
+4 quantités choisies = 4 Yards de tissu
+Tissu Wax Africain idéal pour confection de robes, jupes, hauts, chemises, pantalons, foulards, vestes, accessoires, décors pour la maison et bien d'autres encore.</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/008666/1792873444/il_fullxfull.1792873444_jybm.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/XP3B7LM/CIK9J4KD-large.jpg</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>tissu wax 79 cm x 116 cm</t>
+          <t>Tissus Wax , COUPON TISSU WAX AFRICAIN</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>8,55 €</t>
+          <t>7,69 $</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>55 likes</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.Couleurs : noir, blanc ,roseturquoise blanc orange
-            En savoir plus sur cet article</t>
+          <t>Tissu wax 100% coton. Avec une impression de très belle qualités et des couleurs vives, un deseign unique et dynamique.
+Ce tissu est parfait pour la confection de vos robes, costumes,tops, de vos loisirs créatifs et la décoration
+Sortez des sentiers battus et réalisez des vetements et accesoires pour toute la famille avec ce TISSU WAX 
+Le tissu wax vous offre 1001 possibilités
+Vendu par unités de 45 cm
+1 unite = 45 cm = 1/2 yard
+2 unite = 90 cm = 1 yard
+3 unite = 135 cm = 1,5 yard
+4 unite = 180 cm = 2 yard
+La largeur fait 1m15
+(coupé en un seul morceau)
+Entretien : Nous recommandons fortement le lavage à la main dans une eau pas trop chaude pour préserver le tissu. 
+Mais si vous optez le lavage en machine , ne pas excéder les 30°
+LIVRAISON GRATUIT ET POSSIBLE DES 30 EUROS D'ACHATS EN EUROPE, ETATS UNIS ET L'INTERNATIONAL</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/a5025d/1790074251/il_fullxfull.1790074251_4297.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/SFB2RCX/UTUZU5SJ-large.jpg</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>tissu wax 79 cm x 116 cm</t>
+          <t>Tissus Wax , Tissu wax africain</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>8,55 €</t>
+          <t>20,78 $</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>94 likes</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.Couleurs : noir, blanc ,roseturquoise blanc orange
-            En savoir plus sur cet article</t>
+          <t>Le tissu Wax, aussi appelé tissu africain est une explosion de couleurs et de bonne humeur. Ces toiles en coton imprimées sont un symbole de la culture africaine. Ils nous font voyager au rythme des djembés et des danses entrainantes ! Ce tissu est aussi adapté pour l’habillement que pour l’ameublement.
+Tissus vendu par unité de 50 cm
+1 unité= 50cm
+2 unité= 1m
+3 unité= 1m50
+4 unité = 2m
+Tissus wax 100% coton 
+la largeur fait 1m15
+Tissus wax fleur de mariage 
+Après avoir fait des recherches j'ai réussi à vous trouver ce tissus</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/e88b43/1714317171/il_fullxfull.1714317171_at8n.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/KVUATM5/YEWP5IU2-large.jpg</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>tissu wax 79 cm x 116 cm</t>
+          <t>Tissus Wax , COUPON TISSU WAX AFRICAIN</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>8,55 €</t>
+          <t>6,59 $</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>55 likes</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.Couleurs : noir, blanc ,roseturquoise blanc orange
-            En savoir plus sur cet article</t>
+          <t>Tissu wax 100% coton. Avec une impression de très belle qualités et des couleurs vives, un deseign unique et dynamique.
+Ce tissu est parfait pour la confection de vos robes, costumes,tops, de vos loisirs créatifs et la décoration
+Sortez des sentiers battus et réalisez des vetements et accesoires pour toute la famille.
+Le tissu wax vous offre 1001 possibilités
+vendu par unités de 45 cm
+1 unite = 45 cm = 1/2 yard
+2 unite = 90 cm = 1 yard
+3 unite = 135 cm = 1,5 yard
+4 unite = 180 cm = 2 yard......
+La largeur fait 1m15
+(coupé en un seul morceau)
+Entretien : Nous recommandons fortement le lavage à la main dans une eau pas trop chaude pour préserver le tissu. 
+Mais si vous optez le lavage en machine , ne pas excéder les 30°
+LIVRAISON GRATUIT ET POSSIBLE DES 30 EUROS D'ACHATS EN EUROPE, ETATS UNIS ET L'INTERNATIONAL</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/5d754b/1714318175/il_fullxfull.1714318175_oxq7.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/KVUATM5/7UA1CK3E-large.jpg</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>tissu wax 79 cm x 116 cm</t>
+          <t>Tissus Wax , COUPON TISSU WAX AFRICAIN</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>8,55 €</t>
+          <t>6,59 $</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>55 likes</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.Couleurs : noir, blanc ,roseturquoise blanc orange
-            En savoir plus sur cet article</t>
+          <t>Tissu wax 100% coton. Avec une impression de très belle qualités et des couleurs vives, un deseign unique et dynamique.
+Ce tissu est parfait pour la confection de vos robes, costumes,tops, de vos loisirs créatifs et la décoration
+Sortez des sentiers battus et réalisez des vetements et accesoires pour toute la famille.
+Le tissu wax vous offre 1001 possibilités
+vendu par unités de 45 cm
+1 unite = 45 cm = 1/2 yard
+2 unite = 90 cm = 1 yard
+3 unite = 135 cm = 1,5 yard
+4 unite = 180 cm = 2 yard......
+La largeur fait 1m15
+(coupé en un seul morceau)
+Entretien : Nous recommandons fortement le lavage à la main dans une eau pas trop chaude pour préserver le tissu. 
+Mais si vous optez le lavage en machine , ne pas excéder les 30°
+LIVRAISON GRATUIT ET POSSIBLE DES 30 EUROS D'ACHATS EN EUROPE, ETATS UNIS ET L'INTERNATIONAL</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/aa6cf7/1714320195/il_fullxfull.1714320195_87g4.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/CUL8IX9/JSSTPIMT-large.jpg</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>tissu wax 79 cm x 116 cm</t>
+          <t>Tissus Wax , Coupon pagne wax fleurs jaune</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>8,55 €</t>
+          <t>12,65 $</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.Couleurs : noir, blanc ,roseturquoise blanc orange
-            En savoir plus sur cet article</t>
+          <t>pagne wax  fond jaune et fleurs bleu jaune
+Plusieurs coloris et motifs disponibles dans la boutique
+laize : 1,16 mètres
+composition : coton
+entretien : lavage 30°
+vendu par unités de 0,50 mètre
+pour 1 mètre, prendre la quantité 2
+pour 1,50 mètres, quantité 3
+pour 2 mètres, quantité 4... 
+(coupé en un seul morceau)
+LES TISSUS SONT VENDUS A LA COUPE, ils ne sont ni repris ni échangés, merci de votre compréhension.</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/04d199/1666849512/il_fullxfull.1666849512_idd5.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/CUL8IX9/KK37XNJ5-large.jpg</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>tissu wax 79 cm x 116 cm</t>
+          <t>Tissus Wax , Coupon pagne wax fleurs jaune</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>8,55 €</t>
+          <t>12,65 $</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.Couleurs : noir, blanc ,roseturquoise blanc orange
-            En savoir plus sur cet article</t>
+          <t>pagne wax  fond jaune et fleurs bleu jaune
+Plusieurs coloris et motifs disponibles dans la boutique
+laize : 1,16 mètres
+composition : coton
+entretien : lavage 30°
+vendu par unités de 0,50 mètre
+pour 1 mètre, prendre la quantité 2
+pour 1,50 mètres, quantité 3
+pour 2 mètres, quantité 4... 
+(coupé en un seul morceau)
+LES TISSUS SONT VENDUS A LA COUPE, ils ne sont ni repris ni échangés, merci de votre compréhension.</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/dcbb2a/1742618536/il_fullxfull.1742618536_ai8j.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/CUL8IX9/RT9ZK46P-large.jpg</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>tissu wax 79 cm x 116 cm</t>
+          <t>Tissus Wax , Coupon pagne wax fleurs jaune</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>8,55 €</t>
+          <t>12,65 $</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.Couleurs : noir, blanc ,roseturquoise blanc orange
-            En savoir plus sur cet article</t>
+          <t>pagne wax  fond jaune et fleurs bleu jaune
+Plusieurs coloris et motifs disponibles dans la boutique
+laize : 1,16 mètres
+composition : coton
+entretien : lavage 30°
+vendu par unités de 0,50 mètre
+pour 1 mètre, prendre la quantité 2
+pour 1,50 mètres, quantité 3
+pour 2 mètres, quantité 4... 
+(coupé en un seul morceau)
+LES TISSUS SONT VENDUS A LA COUPE, ils ne sont ni repris ni échangés, merci de votre compréhension.</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/e1317e/1790075327/il_fullxfull.1790075327_cxvj.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/CUL8IX9/74951XY8-large.jpg</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>tissu wax 79 cm x 116 cm</t>
+          <t>Tissus Wax , Coupon pagne wax fleurs jaune</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>8,55 €</t>
+          <t>12,65 $</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.Couleurs : noir, blanc ,roseturquoise blanc orange
-            En savoir plus sur cet article</t>
+          <t>pagne wax  fond jaune et fleurs bleu jaune
+Plusieurs coloris et motifs disponibles dans la boutique
+laize : 1,16 mètres
+composition : coton
+entretien : lavage 30°
+vendu par unités de 0,50 mètre
+pour 1 mètre, prendre la quantité 2
+pour 1,50 mètres, quantité 3
+pour 2 mètres, quantité 4... 
+(coupé en un seul morceau)
+LES TISSUS SONT VENDUS A LA COUPE, ils ne sont ni repris ni échangés, merci de votre compréhension.</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/d4003f/1840339335/il_fullxfull.1840339335_ppso.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/CUL8IX9/6HAVS8F2-large.jpg</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>tissu wax 79 cm x 116 cm</t>
+          <t>Tissus Wax , Coupon pagne wax fleurs jaune</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>8,55 €</t>
+          <t>12,65 $</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.Couleurs : noir, blanc ,roseturquoise blanc orange
-            En savoir plus sur cet article</t>
+          <t>pagne wax  fond jaune et fleurs bleu jaune
+Plusieurs coloris et motifs disponibles dans la boutique
+laize : 1,16 mètres
+composition : coton
+entretien : lavage 30°
+vendu par unités de 0,50 mètre
+pour 1 mètre, prendre la quantité 2
+pour 1,50 mètres, quantité 3
+pour 2 mètres, quantité 4... 
+(coupé en un seul morceau)
+LES TISSUS SONT VENDUS A LA COUPE, ils ne sont ni repris ni échangés, merci de votre compréhension.</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/3b336a/1840340021/il_fullxfull.1840340021_qevs.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/V39NL22/WSIQ8SFE-large.jpg</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>tissu wax 79 cm x 116 cm</t>
+          <t>Tissus Wax , 6 yards - Tissu pagne wax fleurs de mariage</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>8,55 €</t>
+          <t>60,92 $</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.Couleurs : noir, blanc ,roseturquoise blanc orange
-            En savoir plus sur cet article</t>
+          <t>joli tissu wax africain très coloré motif fleurs de mariage rouge et jaune
+impression recto-verso
+Plusieurs coloris et motifs disponibles dans la boutique
+Laize : 1,17 mètres
+Longueur totale : 6 yards (5,48m)
+composition : coton
+Entretien : Nous recommandons fortement le lavage à la main dans une eau pas trop chaude et un savon doux comme le savon de Marseille pour préserver le tissu.
+Mais si vous optez le lavage en machine , ne pas excéder les  30°
+Séchage au sèche linge à proscrire</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/16c2f7/1715927272/il_fullxfull.1715927272_bn16.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/V39NL22/FBD95NKD-large.jpg</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>tissu  wax</t>
+          <t>Tissus Wax , 6 yards - Tissu pagne wax fleurs de mariage</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>5,80 €</t>
+          <t>60,92 $</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.
-            En savoir plus sur cet article</t>
+          <t>joli tissu wax africain très coloré motif fleurs de mariage rouge et jaune
+impression recto-verso
+Plusieurs coloris et motifs disponibles dans la boutique
+Laize : 1,17 mètres
+Longueur totale : 6 yards (5,48m)
+composition : coton
+Entretien : Nous recommandons fortement le lavage à la main dans une eau pas trop chaude et un savon doux comme le savon de Marseille pour préserver le tissu.
+Mais si vous optez le lavage en machine , ne pas excéder les  30°
+Séchage au sèche linge à proscrire</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/a481c1/1715928370/il_fullxfull.1715928370_lq7t.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/XEV42XI/24CUK7C1-large.jpg</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>tissu  wax</t>
+          <t>Tissus Wax , Best-seller rouge</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>5,80 €</t>
+          <t>64,22 $
+                51,55 $</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>9 likes</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.
-            En savoir plus sur cet article</t>
+          <t>VÉRITABLE WAX ! Garanti lavage après lavage ! 
+6 yards = 5.48 m sur 1.22 m ( Dimensions Wax )
+Disponible à partir de 2 yards 
+2 yards 25€
+4 yards 40€
+6 yards 48€
+12 yards 96€</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/30176e/1763381681/il_fullxfull.1763381681_qs43.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/MQRUVFZ/QQJ21UQ3-large.jpg</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>tissu  wax</t>
+          <t>Tissus Bogolan , 6 yards (5,48m) tissu wax imprimé bogolan</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>5,80 €</t>
+          <t>61,80 $
+                58,37 $</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.
-            En savoir plus sur cet article</t>
+          <t>joli pagne type wax avec l’imprimé bogolan
+Livraison a partir du 6 novembre
+Plusieurs coloris et motifs disponibles dans la boutique
+laize : 1,16 mètres
+composition : coton
+Entretien : Nous recommandons fortement le lavage à la main, séparément, dans une eau froide pour préserver le tissu.
+Mais si vous optez le lavage en machine , ne pas excéder les  30°</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/c36f1f/1715932150/il_fullxfull.1715932150_rlqx.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/JZ15MB8/M16CE2IF-large.jpg</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>tissu  wax</t>
+          <t>Kente et autres tissus tissés , pagne wax kenté</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>5,80 €</t>
+          <t>12,10 $</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.
-            En savoir plus sur cet article</t>
+          <t>joli pagne wax africain imprimé kenté 
+Couleurs : jaune rouge violet vert
+impression recto-verso
+Plusieurs coloris et motifs disponibles dans la boutique
+laize : 1,17 mètres 
+composition : coton 
+Entretien : Nous recommandons fortement le lavage à la main dans une eau pas trop chaude et un savon doux comme le savon de Marseille pour préserver le tissu.
+Mais si vous optez le lavage en machine , ne pas excéder les  30°
+Séchage au sèche linge à proscrire
+vendu par unités de 0,50 mètre 
+pour 1 mètre, prendre la quantité 2 
+pour 1,50 mètres, quantité 3 
+pour 2 mètres, quantité 4... 
+(coupé en un seul morceau)
+LES TISSUS SONT VENDUS A LA COUPE, ils ne sont ni repris ni échangés, merci de votre compréhension.</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/842b3c/1715907510/il_fullxfull.1715907510_n2lj.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/JZ15MB8/WU6FRU36-large.jpg</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>tissu  wax</t>
+          <t>Kente et autres tissus tissés , pagne wax kenté</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>5,80 €</t>
+          <t>12,10 $</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.
-            En savoir plus sur cet article</t>
+          <t>joli pagne wax africain imprimé kenté 
+Couleurs : jaune rouge violet vert
+impression recto-verso
+Plusieurs coloris et motifs disponibles dans la boutique
+laize : 1,17 mètres 
+composition : coton 
+Entretien : Nous recommandons fortement le lavage à la main dans une eau pas trop chaude et un savon doux comme le savon de Marseille pour préserver le tissu.
+Mais si vous optez le lavage en machine , ne pas excéder les  30°
+Séchage au sèche linge à proscrire
+vendu par unités de 0,50 mètre 
+pour 1 mètre, prendre la quantité 2 
+pour 1,50 mètres, quantité 3 
+pour 2 mètres, quantité 4... 
+(coupé en un seul morceau)
+LES TISSUS SONT VENDUS A LA COUPE, ils ne sont ni repris ni échangés, merci de votre compréhension.</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/7daff2/1715908630/il_fullxfull.1715908630_p2j1.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/JZ15MB8/JHQ6RCDE-large.jpg</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>tissu  wax</t>
+          <t>Kente et autres tissus tissés , pagne wax kenté</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>5,80 €</t>
+          <t>12,10 $</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.
-            En savoir plus sur cet article</t>
+          <t>joli pagne wax africain imprimé kenté 
+Couleurs : jaune rouge violet vert
+impression recto-verso
+Plusieurs coloris et motifs disponibles dans la boutique
+laize : 1,17 mètres 
+composition : coton 
+Entretien : Nous recommandons fortement le lavage à la main dans une eau pas trop chaude et un savon doux comme le savon de Marseille pour préserver le tissu.
+Mais si vous optez le lavage en machine , ne pas excéder les  30°
+Séchage au sèche linge à proscrire
+vendu par unités de 0,50 mètre 
+pour 1 mètre, prendre la quantité 2 
+pour 1,50 mètres, quantité 3 
+pour 2 mètres, quantité 4... 
+(coupé en un seul morceau)
+LES TISSUS SONT VENDUS A LA COUPE, ils ne sont ni repris ni échangés, merci de votre compréhension.</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/ce4dc9/1715910120/il_fullxfull.1715910120_bxlm.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/YJXMLV6/6Q243RC4-large.jpg</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>tissu  wax</t>
+          <t>Tissus Wax , Tissu Ankara - Tissu Africain - Cire d'Ankara - Tissu par verge</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>5,80 €</t>
+          <t>13,50 $
+                12,23 $</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>26 likes</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.
-            En savoir plus sur cet article</t>
+          <t>Tissu 100% coton à imprimé africain, idéal pour les tenues africaines, les vêtements à la mode, les accessoires ou la décoration, etc. Mesure: 36 pouces / 46 pouces Veuillez noter que la couleur peut être différente en raison de votre moniteur.</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/581af4/1763364373/il_fullxfull.1763364373_c9rq.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/ZRB59Z5/1X7I5RVI-large.jpg</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>tissu  wax</t>
+          <t>Tissus Wax , Tissu au mètre fleur bleue</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>5,80 €</t>
+          <t>9,68 $
+                8,30 $</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>46 likes</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.
-            En savoir plus sur cet article</t>
+          <t>Bonjour,
+L'article est vendu au mètre.
+Préciser la quantité voulue 
+1 = 1 mètre 
+2 = 2 mètres 
+Etc.
+5 = 5,48 mètres (6 yards soit un pagne entier)</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/ce3fe1/1763365351/il_fullxfull.1763365351_lvi3.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/EPZWI8L/7VCT5HHY-large.jpg</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>tissu  wax</t>
+          <t>Tissus Wax , Tissu wax (par 50 centimètres) fleurs de mariage rouges et jaune sur fond jaune - 100% coton</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>5,80 €</t>
+          <t>12,14 $</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>18 likes</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.
-            En savoir plus sur cet article</t>
+          <t>Tissu imprimé wax africain
+Couleur : fleurs rouges et jaunes sur fond jaune
+Dimension : wax vendu par 50 centimetres, largeur 116 cm
+Matière : 100 % coton 
+Idéal pour la couture, la déco, etc. : colorez votre garde-robe, vos accessoires ou votre intérieur grâce à ce joli imprimé wax.
+Tissu wax lavable en machine à 30°C après un premier lavage à la main. Repassage côté envers du tissu.
+Vous souhaitez commander 1 mètre de ce tissu wax, choisissez quantité 2, pour 1 mètre 50, choisissez quantité 3, pour 2 mètres, choisissez quantité 4... Il vous sera livré en un seul morceau.
+N'hésitez pas à me contacter pour toute question.</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/66175a/1715913940/il_fullxfull.1715913940_t1vt.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/IAYCSBD/DH8XA7VY-large.jpg</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>tissu  wax</t>
+          <t>Tissus Wax , COUPON TISSU WAX</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>5,80 €</t>
+          <t>7,69 $</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>55 likes</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.
-            En savoir plus sur cet article</t>
+          <t>Tissu wax 100% coton. Avec une impression de très belle qualités et des couleurs vives, un deseign unique et dynamique.
+Ce tissu est parfait pour la confection de vos robes, costumes,tops, de vos loisirs créatifs et la décoration
+Sortez des sentiers battus et réalisez des vetements et accesoires pour toute la famille.
+Le tissu wax vous offre 1001 possibilités
+vendu par unités de 45 cm
+1 unite = 45 cm = 1/2 yard
+2 unite = 90 cm = 1 yard
+3 unite = 135 cm = 1,5 yard
+4 unite = 180 cm = 2 yard......
+(coupé en un seul morceau)
+ La Largeur fait 1m15
+Entretien : Nous recommandons fortement le lavage à la main dans une eau pas trop chaude pour préserver le tissu. 
+Mais si vous optez le lavage en machine , ne pas excéder les 30°
+LIVRAISON GRATUIT ET POSSIBLE DES 30 EUROS D'ACHATS VERS L'EUROPE, ETATS UNIS ET L'INTERNATIONAL</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/6301f0/1715876810/il_fullxfull.1715876810_8l8z.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/IAYCSBD/JY7VWQBQ-large.jpg</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>tissu  wax</t>
+          <t>Tissus Wax , COUPON TISSU WAX</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>5,80 €</t>
+          <t>7,69 $</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>55 likes</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.
-            En savoir plus sur cet article</t>
+          <t>Tissu wax 100% coton. Avec une impression de très belle qualités et des couleurs vives, un deseign unique et dynamique.
+Ce tissu est parfait pour la confection de vos robes, costumes,tops, de vos loisirs créatifs et la décoration
+Sortez des sentiers battus et réalisez des vetements et accesoires pour toute la famille.
+Le tissu wax vous offre 1001 possibilités
+vendu par unités de 45 cm
+1 unite = 45 cm = 1/2 yard
+2 unite = 90 cm = 1 yard
+3 unite = 135 cm = 1,5 yard
+4 unite = 180 cm = 2 yard......
+(coupé en un seul morceau)
+ La Largeur fait 1m15
+Entretien : Nous recommandons fortement le lavage à la main dans une eau pas trop chaude pour préserver le tissu. 
+Mais si vous optez le lavage en machine , ne pas excéder les 30°
+LIVRAISON GRATUIT ET POSSIBLE DES 30 EUROS D'ACHATS VERS L'EUROPE, ETATS UNIS ET L'INTERNATIONAL</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/2af92a/1763330435/il_fullxfull.1763330435_r1g7.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/IAYCSBD/CS5HKMF5-large.jpg</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>tissu  wax</t>
+          <t>Tissus Wax , COUPON TISSU WAX</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>5,80 €</t>
+          <t>7,69 $</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>55 likes</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.
-            En savoir plus sur cet article</t>
+          <t>Tissu wax 100% coton. Avec une impression de très belle qualités et des couleurs vives, un deseign unique et dynamique.
+Ce tissu est parfait pour la confection de vos robes, costumes,tops, de vos loisirs créatifs et la décoration
+Sortez des sentiers battus et réalisez des vetements et accesoires pour toute la famille.
+Le tissu wax vous offre 1001 possibilités
+vendu par unités de 45 cm
+1 unite = 45 cm = 1/2 yard
+2 unite = 90 cm = 1 yard
+3 unite = 135 cm = 1,5 yard
+4 unite = 180 cm = 2 yard......
+(coupé en un seul morceau)
+ La Largeur fait 1m15
+Entretien : Nous recommandons fortement le lavage à la main dans une eau pas trop chaude pour préserver le tissu. 
+Mais si vous optez le lavage en machine , ne pas excéder les 30°
+LIVRAISON GRATUIT ET POSSIBLE DES 30 EUROS D'ACHATS VERS L'EUROPE, ETATS UNIS ET L'INTERNATIONAL</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/9052d8/1763331691/il_fullxfull.1763331691_16kn.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/S8PK8RL/42SJL6C3-large.jpg</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>tissu  wax</t>
+          <t>Tissus Wax , Tissu wax - par 50 centimètres - petites feuilles blanches et noires sur fond blanc - 100% coton</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>5,80 €</t>
+          <t>11 $
+                10,18 $</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>18 likes</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.
-            En savoir plus sur cet article</t>
+          <t>Tissu imprimé wax
+Couleurs et motifs : petites feuilles noires et jaunes sur fond blanc
+Matière : 100 % coton
+Dimension : vendu par 50 centimètres
+sur 116 cm de largeur
+Idéal pour la couture, la déco, etc. : colorez votre garde-robe, vos accessoires ou votre intérieur grâce à ce joli tissu wax.
+Wax vendu à partir de 50 centimètres (sur 116 cm de largeur). Pour 1 mètre de ce tissu wax, choisissez quantité 2, pour 1m50, choisissez quantité 3, etc.</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/3bfd92/1715883316/il_fullxfull.1715883316_t735.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/34K1DMI/6UZ374R4-large.jpg</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>tissu  wax</t>
+          <t>Tissus Wax , tissu wax imprimé bogolan A 50*116 cm</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>5,80 €</t>
+          <t>13,75 $</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.
-            En savoir plus sur cet article</t>
+          <t>joli pagne type wax avec l’imprimé bogolan
+Livraison a partir du 6 novembre
+Plusieurs coloris et motifs disponibles dans la boutique
+laize : 1,16 mètres
+composition : coton
+Entretien : Nous recommandons fortement le lavage à la main, séparément, dans une eau froide pour préserver le tissu.
+Mais si vous optez le lavage en machine , ne pas excéder les  30°
+vendu par unités de 0,50 mètre
+pour 1 mètre, prendre la quantité 2
+pour 1,50 mètres, quantité 3
+pour 2 mètres, quantité 4... 
+(coupé en un seul morceau)
+LES TISSUS SONT VENDUS A LA COUPE, ils ne sont ni repris ni échangés, merci de votre compréhension.</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/2c212d/1763335523/il_fullxfull.1763335523_e7l4.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/34K1DMI/9V22T19D-large.jpg</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>tissu  wax</t>
+          <t>Tissus Wax , tissu wax imprimé bogolan A 50*116 cm</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>5,80 €</t>
+          <t>13,75 $</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.
-            En savoir plus sur cet article</t>
+          <t>joli pagne type wax avec l’imprimé bogolan
+Livraison a partir du 6 novembre
+Plusieurs coloris et motifs disponibles dans la boutique
+laize : 1,16 mètres
+composition : coton
+Entretien : Nous recommandons fortement le lavage à la main, séparément, dans une eau froide pour préserver le tissu.
+Mais si vous optez le lavage en machine , ne pas excéder les  30°
+vendu par unités de 0,50 mètre
+pour 1 mètre, prendre la quantité 2
+pour 1,50 mètres, quantité 3
+pour 2 mètres, quantité 4... 
+(coupé en un seul morceau)
+LES TISSUS SONT VENDUS A LA COUPE, ils ne sont ni repris ni échangés, merci de votre compréhension.</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/33ff54/1237733974/il_fullxfull.1237733974_mnp1.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/QM85QMF/6XN5YEUD-large.jpg</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>wax tissu pagne africain en coupon</t>
+          <t>Tissu Soie imprimée , Tissu satin imprimé léopard</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>5,35 €</t>
+          <t>14,30 $</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Longueur: 45 Centimètres; Largeur: 116 Centimètres</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.
-            En savoir plus sur cet article</t>
+          <t>Ce n’est pas de la soie mais du satin!!
+Tissu satin avec un imprimé leopArd. Il permettra la réalisation de tenues ou d' accessoires sophistiqués . 
+satin imprimé.Aspect soyeux et léger
+Coloris: violet orange et noir
+Laize : 150 cm
+Vendu par mètre 
+(coupé en un seul morceau)</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/0dbc8b/1284967159/il_fullxfull.1284967159_khnb.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/QM85QMF/M46VHNAN-large.jpg</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>wax tissu pagne africain en coupon</t>
+          <t>Tissu Soie imprimée , Tissu satin imprimé léopard</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>5,35 €</t>
+          <t>14,30 $</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Longueur: 45 Centimètres; Largeur: 116 Centimètres</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.
-            En savoir plus sur cet article</t>
+          <t>Ce n’est pas de la soie mais du satin!!
+Tissu satin avec un imprimé leopArd. Il permettra la réalisation de tenues ou d' accessoires sophistiqués . 
+satin imprimé.Aspect soyeux et léger
+Coloris: violet orange et noir
+Laize : 150 cm
+Vendu par mètre 
+(coupé en un seul morceau)</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/6d634e/1237733852/il_fullxfull.1237733852_l8qx.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/QM85QMF/3N2IT1KS-large.jpg</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>wax tissu pagne africain en coupon</t>
+          <t>Tissu Soie imprimée , Tissu satin imprimé léopard</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>5,35 €</t>
+          <t>14,30 $</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Longueur: 45 Centimètres; Largeur: 116 Centimètres</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.
-            En savoir plus sur cet article</t>
+          <t>Ce n’est pas de la soie mais du satin!!
+Tissu satin avec un imprimé leopArd. Il permettra la réalisation de tenues ou d' accessoires sophistiqués . 
+satin imprimé.Aspect soyeux et léger
+Coloris: violet orange et noir
+Laize : 150 cm
+Vendu par mètre 
+(coupé en un seul morceau)</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/cffe7d/1587257995/il_fullxfull.1587257995_878e.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/QM85QMF/P9XI2L4F-large.jpg</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>tissu wax african fabric 90 cm x 115 cm</t>
+          <t>Tissu Soie imprimée , Tissu satin imprimé léopard</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>10,80 €</t>
+          <t>14,30 $</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.
-            En savoir plus sur cet article</t>
+          <t>Ce n’est pas de la soie mais du satin!!
+Tissu satin avec un imprimé leopArd. Il permettra la réalisation de tenues ou d' accessoires sophistiqués . 
+satin imprimé.Aspect soyeux et léger
+Coloris: violet orange et noir
+Laize : 150 cm
+Vendu par mètre 
+(coupé en un seul morceau)</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/67e059/1788551772/il_fullxfull.1788551772_a4tf.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/TDFI8QD/LMPNWK1M-large.jpg</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>tissu wax african fabric 90 cm x 115 cm</t>
+          <t>Tissus Wax , coupon tissu wax africain</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>10,80 €</t>
+          <t>6,59 $</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>55 likes</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.
-            En savoir plus sur cet article</t>
+          <t>Tissu wax 100% coton. Avec une impression de très belle qualités et des couleurs vives, un deseign unique et dynamique.
+Ce tissu est parfait pour la confection de vos robes, costumes,tops, de vos loisirs créatifs et la décoration
+Sortez des sentiers battus et réalisez des vetements et accesoires pour toute la famille.
+Le tissu wax vous offre 1001 possibilités
+Vendu par unités de 45cm
+1 unite = 45 cm = 1/2 yard
+2 unite = 90 cm = 1 yard
+3 unite = 135 cm = 1,5 yard
+4 unite = 180 cm = 2 yard........ 
+(coupé en un seul morceau)
+ La Largeur fait 1m15
+Entretien : Nous recommandons fortement le lavage à la main dans une eau pas trop chaude pour préserver le tissu. 
+Mais si vous optez le lavage en machine , ne pas excéder les 30°
+LIVRAISON GRATUIT ET POSSIBLE DES 30 EUROS D'ACHATS VERS, L'EUROPE, ETATS UNIS ETL' INTERNATIONAL</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/ce822d/1725870951/il_fullxfull.1725870951_r24y.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/F57B9S6/3DIEK6FT-large.jpg</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>tissu wax african fabric 90 cm x 115 cm</t>
+          <t>Tissu Mousseline imprimée , Tissu mousseline bogolan</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>10,80 €</t>
+          <t>18,69 $</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.
-            En savoir plus sur cet article</t>
+          <t>Une version mousseline du tissu Bogolan pour la réalisation de tenues ou d' accessoires sophistiqués . 
+Aspect soyeux et léger. 
+Peut être combiné avec la version satin du même imprimé pour vos tenues.
+Coloris: noir,blanc et marron
+Laize : 107 cm
+Vendu par unité de 90 cm
+Pour 1,80 m prendre la quantité 2 (coupé en un seul morceau)
+La longueur maxi en un seul tenant de la MOUSSELINE est de 2 yards env 1,80m . Si vous commandez plus de 2 yards le coupon ne sera pas livré en un seul morceau.Vous aurez forcément au moins 2 coupons</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/6dd358/2085986651/il_fullxfull.2085986651_lzl2.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/2XYKSBV/28J7AQCV-large.jpg</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>tissu wax african fabric 90 cm x 115 cm</t>
+          <t>Madras , Madras fabric tissus antillais coton</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>10,80 €</t>
+          <t>21,88 $</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>94 likes</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.
-            En savoir plus sur cet article</t>
+          <t>tissus madras antillais 100% coton 160cm de largeur 
+Tissus vendu par 50cm
+ C’est le fibre naturelle la plus utilisée dans le monde. Le tissu coton imprimé madras  se caractérise par son aspect doux et confortable. C’est un tissu hypoallergénique, très sain, souple et respirant. Le tissu coton imprimé madras  trouve de multiples utilisations. Il est couramment utilisé dans la création de vêtements, linge de maison, art de la table ou ameublement.</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/d01e20/2038376958/il_fullxfull.2038376958_iby9.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/77VBFHY/RV13PPU6-large.jpg</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>tissu wax african fabric 90 cm x 115 cm</t>
+          <t>Tissus Wax , COUPON TISSU WAX AFRICAIN</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>10,80 €</t>
+          <t>7,69 $</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>55 likes</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.
-            En savoir plus sur cet article</t>
+          <t>Tissu wax 100% coton. Avec une impression de très belle qualités et des couleurs vives, un deseign unique et dynamique.
+Ce tissu est parfait pour la confection de vos robes, costumes,tops, de vos loisirs créatifs et la décoration
+Sortez des sentiers battus et réalisez des vetements et accesoires pour toute la famille avec ce TISSU WAX 
+Le tissu wax vous offre 1001 possibilités
+Vendu par unités de 0.5 mètre 
+Pour 1 mètre, prendre la quantité 2 
+Pour 1,50 mètres, quantité 3 
+Pour 2 mètres, quantité 4... 
+(coupé en un seul morceau)
+Entretien : Nous recommandons fortement le lavage à la main dans une eau pas trop chaude pour préserver le tissu. 
+Mais si vous optez le lavage en machine , ne pas excéder les 30°
+LIVRAISON GRATUIT ET POSSIBLE DES 30 EUROS D'ACHATS EN EUROPE, ETATS UNIS ET L'INTERNATIONAL</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/64aa7f/1526009051/il_fullxfull.1526009051_cov7.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/77VBFHY/QZJVW6MN-large.jpg</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>tissu wax african fabric 90 cm x 115 cm</t>
+          <t>Tissus Wax , COUPON TISSU WAX AFRICAIN</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>10,80 €</t>
+          <t>7,69 $</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>55 likes</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.
-            En savoir plus sur cet article</t>
+          <t>Tissu wax 100% coton. Avec une impression de très belle qualités et des couleurs vives, un deseign unique et dynamique.
+Ce tissu est parfait pour la confection de vos robes, costumes,tops, de vos loisirs créatifs et la décoration
+Sortez des sentiers battus et réalisez des vetements et accesoires pour toute la famille avec ce TISSU WAX 
+Le tissu wax vous offre 1001 possibilités
+Vendu par unités de 0.5 mètre 
+Pour 1 mètre, prendre la quantité 2 
+Pour 1,50 mètres, quantité 3 
+Pour 2 mètres, quantité 4... 
+(coupé en un seul morceau)
+Entretien : Nous recommandons fortement le lavage à la main dans une eau pas trop chaude pour préserver le tissu. 
+Mais si vous optez le lavage en machine , ne pas excéder les 30°
+LIVRAISON GRATUIT ET POSSIBLE DES 30 EUROS D'ACHATS EN EUROPE, ETATS UNIS ET L'INTERNATIONAL</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/14123b/1526009509/il_fullxfull.1526009509_akms.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/DNEY8YN/CBJE6CE4-large.jpg</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>tissu wax african fabric 90 cm x 115 cm</t>
+          <t>Tissus Wax , 2 yards - VLISCO Hollandais tissu d'impression de cire africaine: WHITE WEDDING FLOWERS</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>10,80 €</t>
+          <t>45,21 $</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>64 likes</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.
-            En savoir plus sur cet article</t>
+          <t>Tissus africains de haute qualité imprimés en cire. Ces tissus sont parfaits pour créer votre propre mode à la mode! Vlisco Hollandais Wax Print Fabric, cire africaine de haute qualité. African Print: un mélange exotique de couleurs vibrantes et de design africain traditionnel. Ce tissu est composé à 100% de coton: véritable imprimé à la cire Hollandais de Vlisco. Les tissus African Print peuvent être utilisés pour les jupes, robes et hauts, robes longues, robes de mariées africaines et plus encore! Code produit: VL-8003 Marque: Vlisco (100% authentique, imprimé par Vlisco aux Pays-Bas) Motif: Fleurs de mariage / Rolls Royce / Fleurs De Mariage / Mgbolodi Couleurs utilisées: blanc, rouge, jaune Largeur: 48 pouces (120 cm) Longueur : par 2 mètres (182 cm) (si vous voulez commander 4 verges, vous pouvez en acheter 2, si vous voulez en commander 6 verges, vous pouvez en commander 3, ce sera en une seule pièce) Matériel: 100% coton (véritable cire hollandaise) (sac Vlisco en papier blanc et instructions d'entretien inclus pour toutes les commandes de tissu Vlisco de 8 mètres ou plus)</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/71a160/1725874247/il_fullxfull.1725874247_gmkj.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/DNEY8YN/YF6CACNW-large.jpg</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>tissu wax african fabric 90 cm x 115 cm</t>
+          <t>Tissus Wax , 2 yards - VLISCO Hollandais tissu d'impression de cire africaine: WHITE WEDDING FLOWERS</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>10,80 €</t>
+          <t>45,21 $</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>64 likes</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.
-            En savoir plus sur cet article</t>
+          <t>Tissus africains de haute qualité imprimés en cire. Ces tissus sont parfaits pour créer votre propre mode à la mode! Vlisco Hollandais Wax Print Fabric, cire africaine de haute qualité. African Print: un mélange exotique de couleurs vibrantes et de design africain traditionnel. Ce tissu est composé à 100% de coton: véritable imprimé à la cire Hollandais de Vlisco. Les tissus African Print peuvent être utilisés pour les jupes, robes et hauts, robes longues, robes de mariées africaines et plus encore! Code produit: VL-8003 Marque: Vlisco (100% authentique, imprimé par Vlisco aux Pays-Bas) Motif: Fleurs de mariage / Rolls Royce / Fleurs De Mariage / Mgbolodi Couleurs utilisées: blanc, rouge, jaune Largeur: 48 pouces (120 cm) Longueur : par 2 mètres (182 cm) (si vous voulez commander 4 verges, vous pouvez en acheter 2, si vous voulez en commander 6 verges, vous pouvez en commander 3, ce sera en une seule pièce) Matériel: 100% coton (véritable cire hollandaise) (sac Vlisco en papier blanc et instructions d'entretien inclus pour toutes les commandes de tissu Vlisco de 8 mètres ou plus)</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/7d9f65/1836016551/il_fullxfull.1836016551_60ry.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/DNEY8YN/1C6SRKYP-large.jpg</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>tissu wax african fabric 90 cm x 115 cm</t>
+          <t>Tissus Wax , 2 yards - VLISCO Hollandais tissu d'impression de cire africaine: WHITE WEDDING FLOWERS</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>10,80 €</t>
+          <t>45,21 $</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>64 likes</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.
-            En savoir plus sur cet article</t>
+          <t>Tissus africains de haute qualité imprimés en cire. Ces tissus sont parfaits pour créer votre propre mode à la mode! Vlisco Hollandais Wax Print Fabric, cire africaine de haute qualité. African Print: un mélange exotique de couleurs vibrantes et de design africain traditionnel. Ce tissu est composé à 100% de coton: véritable imprimé à la cire Hollandais de Vlisco. Les tissus African Print peuvent être utilisés pour les jupes, robes et hauts, robes longues, robes de mariées africaines et plus encore! Code produit: VL-8003 Marque: Vlisco (100% authentique, imprimé par Vlisco aux Pays-Bas) Motif: Fleurs de mariage / Rolls Royce / Fleurs De Mariage / Mgbolodi Couleurs utilisées: blanc, rouge, jaune Largeur: 48 pouces (120 cm) Longueur : par 2 mètres (182 cm) (si vous voulez commander 4 verges, vous pouvez en acheter 2, si vous voulez en commander 6 verges, vous pouvez en commander 3, ce sera en une seule pièce) Matériel: 100% coton (véritable cire hollandaise) (sac Vlisco en papier blanc et instructions d'entretien inclus pour toutes les commandes de tissu Vlisco de 8 mètres ou plus)</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/839e78/1788555356/il_fullxfull.1788555356_gstq.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/B3L2RJ5/3PK1R3A7-large.jpg</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>tissu wax african fabric 90 cm x 115 cm</t>
+          <t>Tissus Wax , COUPON TISSU WAX AFRICAIN motif: PARAPLUIE</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>10,80 €</t>
+          <t>4,95 $</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>55 likes</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.
-            En savoir plus sur cet article</t>
+          <t>Tissu wax Mélange de polyester et coton. Avec une impression de très belle qualités et des couleurs vives, un deseign unique et dynamique.
+Ce tissu est parfait pour la confection de vos robes, costumes,tops, de vos loisirs créatifs et la décoration
+Sortez des sentiers battus et réalisez des vetements et accesoires pour toute la famille avec ce TISSU WAX motif parapluie
+materiaux: polyester
+Le tissu wax vous offre 1001 possibilités
+Vendu par unités de 45 cm
+1 unite = 45 cm = 1/2 yard
+2 unite = 90 cm = 1 yard
+3 unite = 135 cm = 1,5 yard
+4 unite = 180 cm = 2 yard...
+La largeur fait 1m15
+(coupé en un seul morceau)
+Entretien : Nous recommandons fortement le lavage à la main dans une eau pas trop chaude pour préserver le tissu. 
+Mais si vous optez le lavage en machine , ne pas excéder les 30°
+LIVRAISON GRATUIT ET POSSIBLE DES 30 EUROS D'ACHATS VERS L'EUROPE, ETATS UNIS, L'INTERNATIONAL</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/a2c066/1399486820/il_fullxfull.1399486820_g38w.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/B3L2RJ5/RXU4N46J-large.jpg</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>tissu wax bleu  90 cm x 116 cm</t>
+          <t>Tissus Wax , COUPON TISSU WAX AFRICAIN motif: PARAPLUIE</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>10,80 €</t>
+          <t>4,95 $</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>55 likes</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Non</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Longueur: 90 Centimètres; Largeur: 116 Centimètres</t>
+          <t>Tissu wax Mélange de polyester et coton. Avec une impression de très belle qualités et des couleurs vives, un deseign unique et dynamique.
+Ce tissu est parfait pour la confection de vos robes, costumes,tops, de vos loisirs créatifs et la décoration
+Sortez des sentiers battus et réalisez des vetements et accesoires pour toute la famille avec ce TISSU WAX motif parapluie
+materiaux: polyester
+Le tissu wax vous offre 1001 possibilités
+Vendu par unités de 45 cm
+1 unite = 45 cm = 1/2 yard
+2 unite = 90 cm = 1 yard
+3 unite = 135 cm = 1,5 yard
+4 unite = 180 cm = 2 yard...
+La largeur fait 1m15
+(coupé en un seul morceau)
+Entretien : Nous recommandons fortement le lavage à la main dans une eau pas trop chaude pour préserver le tissu. 
+Mais si vous optez le lavage en machine , ne pas excéder les 30°
+LIVRAISON GRATUIT ET POSSIBLE DES 30 EUROS D'ACHATS VERS L'EUROPE, ETATS UNIS, L'INTERNATIONAL</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/9689c4/1446759051/il_fullxfull.1446759051_sjs5.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/TWS6AIE/QUNS33FE-large.jpg</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>tissu wax bleu  90 cm x 116 cm</t>
+          <t>Tissu Soie imprimée , Soie imprimée wax fleurs de mariage beige doré</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>10,80 €</t>
+          <t>21,44 $</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Non</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Longueur: 90 Centimètres; Largeur: 116 Centimètres</t>
+          <t>Une version soie de vos motifs wax préférés pour la réalisation de tenues ou d' accessoires sophistiqués . 
+satin imprimé.Aspect soyeux et léger
+Existe en version mousseline
+Coloris: beige et marron
+Laize : 140 cm
+Vendu par unité de 90 cm
+Pour 1,80 m prendre la quantité 2 (coupé en un seul morceau)
+La longueur maxi en un seul tenant du Satin est de 4 yards si vous commandez plus que 4 yards le coupon ne sera pas d'un seul tenant. Vous aurez forcément au moins 2 coupons</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/43ffac/1446760565/il_fullxfull.1446760565_74gp.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/TWS6AIE/AXIXXVX5-large.jpg</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>tissu wax bleu  90 cm x 116 cm</t>
+          <t>Tissu Soie imprimée , Soie imprimée wax fleurs de mariage beige doré</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>10,80 €</t>
+          <t>21,44 $</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Non</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Longueur: 90 Centimètres; Largeur: 116 Centimètres</t>
+          <t>Une version soie de vos motifs wax préférés pour la réalisation de tenues ou d' accessoires sophistiqués . 
+satin imprimé.Aspect soyeux et léger
+Existe en version mousseline
+Coloris: beige et marron
+Laize : 140 cm
+Vendu par unité de 90 cm
+Pour 1,80 m prendre la quantité 2 (coupé en un seul morceau)
+La longueur maxi en un seul tenant du Satin est de 4 yards si vous commandez plus que 4 yards le coupon ne sera pas d'un seul tenant. Vous aurez forcément au moins 2 coupons</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/967788/1446760689/il_fullxfull.1446760689_m1wl.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/NYPYVI8/DRCWEPRK-large.jpg</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>tissu wax bleu  90 cm x 116 cm</t>
+          <t>Tissus Wax , Tissus - Tissu - Wax - Tissu Wax Fleur de mariage - Fleurs de mariage - Tissu Pagne - Tissu Africain</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>10,80 €</t>
+          <t>6,59 $</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>87 likes</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Non</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Longueur: 90 Centimètres; Largeur: 116 Centimètres</t>
+          <t>Tissu vendu par 50 cm. La largeur fait toujours 120 cm pour n'importe quelle quantité (cela ne changera pas).
+Un tissu entier fait 5,50 mètres (6 yards) de longueur et 1,20 mètre de largeur.
+Exemple : si vous souhaitez commander 6 yards (5,50 mètres), il faut ajouter dans le panier 11 fois le produit que vous souhaitez commander.
+Calcul : 50 cm x 11 = 5,50 mètres
+VOUS AVEZ DES QUESTIONS ?
+Contactez nous sur AFRIKREA ou par mail : contact@modewax.fr
+Tissus - Tissu - Wax - Tissu Wax Fleur de mariage - Fleurs de mariage - Tissu Pagne - Tissu Africain</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/d14c14/1399487270/il_fullxfull.1399487270_60ji.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/8UHH2UW/LFEVBPNI-large.jpg</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>tissu wax bleu  90 cm x 116 cm</t>
+          <t>Tissus Wax , Tissus à choisir pour la commande sur mesures</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>10,80 €</t>
+          <t>12,10 $</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>94 likes</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Non</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Longueur: 90 Centimètres; Largeur: 116 Centimètres</t>
+          <t>Le modele qui vous plait n'est pas disponible a vos mesures?
+Le modele vous plait,  mais pas le tissu ou alors il nest plus disponible?
+Vous souhaitez modifier rt personnailiser le modele?
+Pas de soucis!
+Jouez les createurs et choisissez le tissu qui vous plait!
+Nous realisons votre commande dans un delai dune semaine.
+Avec soin et application dans notre atelier en Bretagne.
+Craquez et faites sensation!
+A vous!</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/1422c3/1237729544/il_fullxfull.1237729544_2zfp.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/8UHH2UW/6IKL8QC9-large.jpg</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>wax</t>
+          <t>Tissus Wax , Tissus à choisir pour la commande sur mesures</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>3,25 €+</t>
+          <t>12,10 $</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>94 likes</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons. Coloris:  t rouge et bleu
-            En savoir plus sur cet article</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>lagracewax</t>
+          <t>Le modele qui vous plait n'est pas disponible a vos mesures?
+Le modele vous plait,  mais pas le tissu ou alors il nest plus disponible?
+Vous souhaitez modifier rt personnailiser le modele?
+Pas de soucis!
+Jouez les createurs et choisissez le tissu qui vous plait!
+Nous realisons votre commande dans un delai dune semaine.
+Avec soin et application dans notre atelier en Bretagne.
+Craquez et faites sensation!
+A vous!</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/a02260/1237729476/il_fullxfull.1237729476_a9pw.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/8UHH2UW/WUD4AH8B-large.jpg</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>wax</t>
+          <t>Tissus Wax , Tissus à choisir pour la commande sur mesures</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>3,25 €+</t>
+          <t>12,10 $</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>94 likes</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons. Coloris:  t rouge et bleu
-            En savoir plus sur cet article</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>lagracewax</t>
+          <t>Le modele qui vous plait n'est pas disponible a vos mesures?
+Le modele vous plait,  mais pas le tissu ou alors il nest plus disponible?
+Vous souhaitez modifier rt personnailiser le modele?
+Pas de soucis!
+Jouez les createurs et choisissez le tissu qui vous plait!
+Nous realisons votre commande dans un delai dune semaine.
+Avec soin et application dans notre atelier en Bretagne.
+Craquez et faites sensation!
+A vous!</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/5ce3e3/1284962521/il_fullxfull.1284962521_7jf9.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/NRT9YR3/4L2NBEXT-large.jpg</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>wax</t>
+          <t>Tissu Soie imprimée , Soie imprimée wax fleurs de mariage jaune rouge</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>3,25 €+</t>
+          <t>21,44 $</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons. Coloris:  t rouge et bleu
-            En savoir plus sur cet article</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>lagracewax</t>
+          <t>Une version soie de vos motifs wax préférés pour la réalisation de tenues ou d' accessoires sophistiqués . 
+satin imprimé.Aspect soyeux et léger
+Existe en version mousseline
+Coloris: jaune et rouge
+Laize : 140 cm
+Vendu par unité de 90 cm
+Pour 1,80 m prendre la quantité 2 (coupé en un seul morceau)
+La longueur maxi en un seul tenant du Satin est de 4 yards si vous commandez plus que 4 yards le coupon ne sera pas d'un seul tenant. Vous aurez forcément au moins 2 coupons</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/135a6b/1284960619/il_fullxfull.1284960619_7cde.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/NRT9YR3/9NQ6MVF5-large.jpg</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>wax tissu</t>
+          <t>Tissu Soie imprimée , Soie imprimée wax fleurs de mariage jaune rouge</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>2,92 €</t>
+          <t>21,44 $</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons. Coloris: fuchsia,vert.
-            En savoir plus sur cet article</t>
+          <t>Une version soie de vos motifs wax préférés pour la réalisation de tenues ou d' accessoires sophistiqués . 
+satin imprimé.Aspect soyeux et léger
+Existe en version mousseline
+Coloris: jaune et rouge
+Laize : 140 cm
+Vendu par unité de 90 cm
+Pour 1,80 m prendre la quantité 2 (coupé en un seul morceau)
+La longueur maxi en un seul tenant du Satin est de 4 yards si vous commandez plus que 4 yards le coupon ne sera pas d'un seul tenant. Vous aurez forcément au moins 2 coupons</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/42f681/1284960549/il_fullxfull.1284960549_4lpi.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/ANXN58U/XXJVZH5F-large.jpg</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>wax tissu</t>
+          <t>Tissus Wax , Vin Rouge Africain Ankara en cire design hollandais vilisco fabrcis</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>2,92 €</t>
+          <t>56,40 $</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>2 likes</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons. Coloris: fuchsia,vert.
-            En savoir plus sur cet article</t>
+          <t>Vin rouge africain cire d'Ankara hollandais vilisco fabrcis Cire de coton, bonne qualité! Les tissus African Print peuvent être utilisés pour les jupes, les robes et les hauts, les robes longues et les robes de mariée africaines. Aussi, nous avons kente néerlandais Java impression de cire ou vilisco, hollandais. Largeur du tissu: 45 "(114 cm) Longueur: 6 verges (548 cm) Lierre de contact: ivy_lanen@126.com; whatsapp: + 86-13642618037 pour plus de designs</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/81bd9a/1385731945/il_fullxfull.1385731945_604e.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/IC9H89W/Z5ZBJC83-large.jpg</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>tissu wax violet</t>
+          <t>Tissus Wax , 6 yards - Tissu pagne écailles</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>11,25 €</t>
+          <t>60,92 $</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>118 likes</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons. Coloris: violet,noir,blanc
-            En savoir plus sur cet article</t>
+          <t>joli tissu wax africain très coloré motifécailles marron jaune
+impression recto-verso
+Plusieurs coloris et motifs disponibles dans la boutique
+Laize : 1,17 mètres
+Longueur totale : 6 yards (5,48m)
+composition : coton
+Entretien : Nous recommandons fortement le lavage à la main dans une eau pas trop chaude et un savon doux comme le savon de Marseille pour préserver le tissu.
+Mais si vous optez le lavage en machine , ne pas excéder les  30°
+Séchage au sèche linge à proscrire</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/6a9a02/1387170061/il_fullxfull.1387170061_rdkv.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/C2VCINV/KJ6P17FF-large.jpg</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>wax</t>
+          <t>Tissus Wax , Tissus wax fleur de mariage multicolore</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>5,62 €+</t>
+          <t>58,28 $</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>15 likes</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons. Coloris: bleu et orange
-            En savoir plus sur cet article</t>
+          <t>Tissus wax fleur de mariage multicolore 
+Il mesure 5 mėtres 49 ( 6 yards )
+100 % coton, il est lavable en machine.</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>https://i.etsystatic.com/15548902/r/il/8a14ce/1513493667/il_fullxfull.1513493667_m04g.jpg</t>
+          <t>https://d2rzxtfpzvso9s.cloudfront.net/products/C2VCINV/3QY79WSI-large.jpg</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>wax</t>
+          <t>Tissus Wax , Tissus wax fleur de mariage multicolore</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>5,62 €+</t>
+          <t>58,28 $</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>(887)</t>
+          <t>15 likes</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons. Coloris: bleu et orange
-            En savoir plus sur cet article</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>https://i.etsystatic.com/15548902/r/il/f31231/1513494273/il_fullxfull.1513494273_k803.jpg</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>wax</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>5,62 €+</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>(887)</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons. Coloris: bleu et orange
-            En savoir plus sur cet article</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>https://i.etsystatic.com/15548902/r/il/d95062/1448565109/il_fullxfull.1448565109_riic.jpg</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>véritable coupon tissu wax 90 cm x 116 cm</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>5,62 €+</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>(887)</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.
-            En savoir plus sur cet article</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>https://i.etsystatic.com/15548902/r/il/c4fae1/1401295120/il_fullxfull.1401295120_mn4n.jpg</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>véritable coupon tissu wax 90 cm x 116 cm</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>5,62 €+</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>(887)</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.
-            En savoir plus sur cet article</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>https://i.etsystatic.com/15548902/r/il/aa35ca/1401295984/il_fullxfull.1401295984_fs7l.jpg</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>véritable coupon tissu wax 90 cm x 116 cm</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>5,62 €+</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>(887)</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.
-            En savoir plus sur cet article</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>https://i.etsystatic.com/15548902/r/il/7f636c/1401296920/il_fullxfull.1401296920_kucu.jpg</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>véritable coupon tissu wax 90 cm x 116 cm</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>5,62 €+</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>(887)</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.
-            En savoir plus sur cet article</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>https://i.etsystatic.com/15548902/r/il/2e2dcd/2072289871/il_fullxfull.2072289871_6b6r.jpg</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>tissu  wax bleu</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>5,80 €</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>(887)</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>Longueur: 45 Centimètres; Largeur: 116 Centimètres</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>https://i.etsystatic.com/15548902/r/il/a73f31/2024687098/il_fullxfull.2024687098_dj11.jpg</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>tissu  wax bleu</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>5,80 €</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>(887)</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>Longueur: 45 Centimètres; Largeur: 116 Centimètres</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>https://i.etsystatic.com/15548902/r/il/c9c4fd/2024663326/il_fullxfull.2024663326_79lj.jpg</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>tissu  wax bleu</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>5,80 €</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>(887)</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>Longueur: 45 Centimètres; Largeur: 116 Centimètres</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>https://i.etsystatic.com/15548902/r/il/c62a5f/2072289631/il_fullxfull.2072289631_qcvi.jpg</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>tissu  wax bleu</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>5,80 €</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>(887)</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>Longueur: 45 Centimètres; Largeur: 116 Centimètres</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>https://i.etsystatic.com/15548902/r/il/149c3b/2082844491/il_fullxfull.2082844491_i3cf.jpg</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>tissu wax</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>5,62 €</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>(887)</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.
-            En savoir plus sur cet article</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>https://i.etsystatic.com/15548902/r/il/466bca/2036096574/il_fullxfull.2036096574_sjdg.jpg</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>tissu wax</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>5,62 €</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>(887)</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.
-            En savoir plus sur cet article</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>https://i.etsystatic.com/15548902/r/il/a42cb6/1237735170/il_fullxfull.1237735170_ss1k.jpg</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>tissu wax</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>5,62 €</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>(887)</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.
-            En savoir plus sur cet article</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>https://i.etsystatic.com/15548902/r/il/991d5f/2083709349/il_fullxfull.2083709349_4xxk.jpg</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>tissu wax</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>5,62 €</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>(887)</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.
-            En savoir plus sur cet article</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>https://i.etsystatic.com/15548902/r/il/502146/1284968457/il_fullxfull.1284968457_adi2.jpg</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>tissu wax</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>5,62 €</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>(887)</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.
-            En savoir plus sur cet article</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>https://i.etsystatic.com/15548902/r/il/43b1f3/2035234092/il_fullxfull.2035234092_sca0.jpg</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>tissu wax</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>5,62 €</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>(887)</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.
-            En savoir plus sur cet article</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>https://i.etsystatic.com/15548902/r/il/1ef76f/2082844433/il_fullxfull.2082844433_nlo7.jpg</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>tissu wax</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>5,62 €</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>(887)</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.
-            En savoir plus sur cet article</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>https://i.etsystatic.com/15548902/r/il/ed5f05/2036097266/il_fullxfull.2036097266_netf.jpg</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>tissu wax</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>5,62 €</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>(887)</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.
-            En savoir plus sur cet article</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>https://i.etsystatic.com/15548902/r/il/213a22/2083709265/il_fullxfull.2083709265_nic9.jpg</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>tissu wax</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>5,62 €</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>(887)</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.
-            En savoir plus sur cet article</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>https://i.etsystatic.com/15548902/r/il/f42ffb/2105973239/il_fullxfull.2105973239_xg0a.jpg</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>coupon tissu wax 45 cm x 55 cm</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>2,65 €+</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>(887)</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>Largeur: 55 Centimètres</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>https://i.etsystatic.com/15548902/r/il/ca98b7/1284946093/il_fullxfull.1284946093_c006.jpg</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>coupon tissu wax 45 cm x 55 cm</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>2,65 €+</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>(887)</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>Largeur: 55 Centimètres</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>https://i.etsystatic.com/15548902/r/il/0ae9fc/2105973927/il_fullxfull.2105973927_sy82.jpg</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>coupon tissu wax 45 cm x 55 cm</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>2,65 €+</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>(887)</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>Largeur: 55 Centimètres</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>https://i.etsystatic.com/15548902/r/il/8dc2a2/2105974301/il_fullxfull.2105974301_96yd.jpg</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>coupon tissu wax 45 cm x 55 cm</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>2,65 €+</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>(887)</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>Largeur: 55 Centimètres</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>https://i.etsystatic.com/15548902/r/il/275d0d/2084980529/il_fullxfull.2084980529_byrr.jpg</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>tissu  wax</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>5,62 €</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>(887)</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>Longueur: 45 Centimètres; Largeur: 116 Centimètres</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>https://i.etsystatic.com/15548902/r/il/1ee17f/2084982505/il_fullxfull.2084982505_9qau.jpg</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>tissu  wax</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>5,62 €</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>(887)</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>Longueur: 45 Centimètres; Largeur: 116 Centimètres</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>https://i.etsystatic.com/15548902/r/il/ed74b4/2084983677/il_fullxfull.2084983677_stkg.jpg</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>tissu  wax</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>5,62 €</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>(887)</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>Longueur: 45 Centimètres; Largeur: 116 Centimètres</t>
-        </is>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>https://i.etsystatic.com/15548902/r/il/75bf60/2084984933/il_fullxfull.2084984933_rab3.jpg</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>tissu  wax</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>5,62 €</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>(887)</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>Longueur: 45 Centimètres; Largeur: 116 Centimètres</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>https://i.etsystatic.com/15548902/r/il/0c1b96/2084985829/il_fullxfull.2084985829_hkdp.jpg</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>tissu  wax</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>5,62 €</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>(887)</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>Longueur: 45 Centimètres; Largeur: 116 Centimètres</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>https://i.etsystatic.com/15548902/r/il/7d7e62/2084987469/il_fullxfull.2084987469_pd9k.jpg</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>tissu  wax</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>5,62 €</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>(887)</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>Longueur: 45 Centimètres; Largeur: 116 Centimètres</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>https://i.etsystatic.com/15548902/r/il/ceb07d/2035657928/il_fullxfull.2035657928_nr30.jpg</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>coupon tissu wax</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>2,65 €+</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>(887)</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.
-            En savoir plus sur cet article</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>https://i.etsystatic.com/15548902/r/il/3965ed/2083267761/il_fullxfull.2083267761_lj2w.jpg</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>coupon tissu wax</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>2,65 €+</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>(887)</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons.
-            En savoir plus sur cet article</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>https://i.etsystatic.com/15548902/r/il/283dce/1265404002/il_fullxfull.1265404002_rxg7.jpg</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>Tissu wax véritable,  wax 90cm x117cm</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>9,45 €</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>(887)</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>Longueur: 90 Centimètres; Largeur: 116 Centimètres</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>https://i.etsystatic.com/15548902/r/il/091dc3/1312637789/il_fullxfull.1312637789_5830.jpg</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>Tissu wax véritable,  wax 90cm x117cm</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>9,45 €</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>(887)</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>Longueur: 90 Centimètres; Largeur: 116 Centimètres</t>
-        </is>
-      </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>https://i.etsystatic.com/15548902/r/il/664d90/1312637715/il_fullxfull.1312637715_ji4y.jpg</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>Tissu wax véritable,  wax 90cm x117cm</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>9,45 €</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>(887)</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>Longueur: 90 Centimètres; Largeur: 116 Centimètres</t>
-        </is>
-      </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>https://i.etsystatic.com/15548902/r/il/b58782/1237736826/il_fullxfull.1237736826_rdv3.jpg</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>wax tissu</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>2,65 €+</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>(887)</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>lagracewax</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>https://i.etsystatic.com/15548902/r/il/40f4d6/1284970111/il_fullxfull.1284970111_cum4.jpg</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>wax tissu</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>2,65 €+</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>(887)</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>lagracewax</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>https://i.etsystatic.com/15548902/r/il/0cdc4a/1265388844/il_fullxfull.1265388844_38p6.jpg</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>Véritable coupon tissu wax</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>2,47 €+</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>(887)</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons. Couleurs dominantes: ocre ,bleu,orange
-            En savoir plus sur cet article</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>lagracewax</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>https://i.etsystatic.com/15548902/r/il/aa837e/1430651276/il_fullxfull.1430651276_mdbv.jpg</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>Véritable coupon tissu wax</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>2,47 €+</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>(887)</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons. Couleurs dominantes: ocre ,bleu,orange
-            En savoir plus sur cet article</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>lagracewax</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>https://i.etsystatic.com/15548902/r/il/73baf9/1529035531/il_fullxfull.1529035531_95y3.jpg</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>wax africain   coupon  de tissu africain wax</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>2,65 €+</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>(887)</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons. Couleurs dominantes: violet,vert,noir
-            En savoir plus sur cet article</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>lagracewax</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>https://i.etsystatic.com/15548902/r/il/7f9716/1481557244/il_fullxfull.1481557244_ryej.jpg</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>wax africain   coupon  de tissu africain wax</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>2,65 €+</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>(887)</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons. Couleurs dominantes: violet,vert,noir
-            En savoir plus sur cet article</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>lagracewax</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>https://i.etsystatic.com/15548902/r/il/cb3281/1481557994/il_fullxfull.1481557994_f6kp.jpg</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>wax africain   coupon  de tissu africain wax</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>2,65 €+</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>(887)</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons. Couleurs dominantes: violet,vert,noir
-            En savoir plus sur cet article</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>lagracewax</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>https://i.etsystatic.com/15548902/r/il/1a3d74/1481557370/il_fullxfull.1481557370_elr1.jpg</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>wax africain   coupon  de tissu africain wax</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>2,65 €+</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>(887)</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>le wax est un tissu cent pour cent coton d'une grande qualité et coloré. Ce tissu peut être utilisé pour la réalisation de plusieurs créations, vêtements,sacs, loisirs créatifs....le tissu peut rétrécir au lavage. Prévoir avant la réalisation de la création.Possibilité d'avoir le tissu d'un seul tenant si vous commandez plusieurs coupons. Couleurs dominantes: violet,vert,noir
-            En savoir plus sur cet article</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>lagracewax</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>https://i.etsystatic.com/15548902/r/il/7e02fd/2106016993/il_fullxfull.2106016993_2wp4.jpg</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>coupon tissu  wax african cloth pagne 45 cm x 115 cm</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>5,80 €</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>(887)</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>Longueur: 45 Centimètres; Largeur: 115 Centimètres</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>https://i.etsystatic.com/15548902/r/il/81d14a/2058441070/il_fullxfull.2058441070_fstu.jpg</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>coupon tissu  wax african cloth pagne 45 cm x 115 cm</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>5,80 €</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>(887)</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>Longueur: 45 Centimètres; Largeur: 115 Centimètres</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>https://i.etsystatic.com/15548902/r/il/14ea74/2106018693/il_fullxfull.2106018693_3f8x.jpg</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>coupon tissu  wax african cloth pagne 45 cm x 115 cm</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>5,80 €</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>(887)</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>Longueur: 45 Centimètres; Largeur: 115 Centimètres</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>https://i.etsystatic.com/15548902/r/il/241931/2106019607/il_fullxfull.2106019607_ijs7.jpg</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>coupon tissu  wax african cloth pagne 45 cm x 115 cm</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>5,80 €</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>(887)</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>Longueur: 45 Centimètres; Largeur: 115 Centimètres</t>
-        </is>
-      </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>https://i.etsystatic.com/15548902/r/il/7908b2/2106020351/il_fullxfull.2106020351_nmth.jpg</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>coupon tissu  wax african cloth pagne 45 cm x 115 cm</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>5,80 €</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>(887)</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>Longueur: 45 Centimètres; Largeur: 115 Centimètres</t>
-        </is>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>Fibre principale: Coton</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>https://i.etsystatic.com/15548902/r/il/d184b7/2058444416/il_fullxfull.2058444416_r36f.jpg</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>coupon tissu  wax african cloth pagne 45 cm x 115 cm</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>5,80 €</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>(887)</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>Longueur: 45 Centimètres; Largeur: 115 Centimètres</t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>Fibre principale: Coton</t>
+          <t>Tissus wax fleur de mariage multicolore 
+Il mesure 5 mėtres 49 ( 6 yards )
+100 % coton, il est lavable en machine.</t>
         </is>
       </c>
     </row>
